--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF76D145-6C77-451A-8F59-9CDFA2CB17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3CAD9-D5E5-4A4E-9A3F-F84A187D76A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Defaults" sheetId="26" r:id="rId8"/>
     <sheet name="CPI" sheetId="23" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -114,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="184">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -515,9 +518,6 @@
     <t>Month</t>
   </si>
   <si>
-    <t>Season</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -608,24 +608,69 @@
     <t>PJa</t>
   </si>
   <si>
+    <t>Wi</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>Sp</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Su</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Au</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>TIMES-Ireland Model</t>
   </si>
   <si>
     <t>Document type:</t>
   </si>
   <si>
+    <t>System Settings</t>
+  </si>
+  <si>
     <t>Sector(s):</t>
   </si>
   <si>
+    <t>All sectors</t>
+  </si>
+  <si>
     <t>Purpose:</t>
   </si>
   <si>
+    <t>Specifies various settings, including regions, timeslices and periods</t>
+  </si>
+  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
+    <t>James Glynn (UCC, james.glynn@ucc.ie)</t>
+  </si>
+  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
     <t>Part of TIM version:</t>
   </si>
   <si>
@@ -642,21 +687,6 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
-  </si>
-  <si>
-    <t>System Settings</t>
-  </si>
-  <si>
-    <t>All sectors</t>
-  </si>
-  <si>
-    <t>Specifies various settings, including regions, timeslices and periods</t>
-  </si>
-  <si>
-    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
-  </si>
-  <si>
-    <t>James Glynn (UCC, james.glynn@ucc.ie)</t>
   </si>
 </sst>
 </file>
@@ -666,7 +696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -682,7 +712,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -798,6 +827,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="24"/>
@@ -1053,9 +1087,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1158,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1131,60 +1168,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{98700215-67AF-41D1-9F9B-98379AE9DCA7}"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{D5293420-DFC6-4859-99B0-BBFA37DF2BDB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{170890D9-89B9-41D3-B2AA-EB17F5F38398}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{1CE84045-16CC-48AC-9FA0-1B9F6515834B}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7B949E70-0209-4534-BEFB-F6BBB30508EA}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{64F4B2AD-50C0-48B8-AD54-60C06FCAD30C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,7 +1260,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FF9F3C-3DFB-4509-993B-E9E9C13F720F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1267,7 +1304,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575FB787-6126-4D5C-91B4-03C130270599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1316,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E48AFD-6D7C-4DA8-84A9-BB1A14AF3B2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1403,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D254F58-28BF-4B90-AAC8-5B68F5DF7492}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1453,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4ADD4D2-7CD7-4DD4-B0E9-3DBFA1855C7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1502,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3124C59-B220-4E5A-BF83-31FC5CD19C08}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1535,7 +1572,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8193"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1627,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1648,7 +1685,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1833,7 +1870,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2049,7 @@
         <xdr:cNvPr id="2050" name="Text Box 1026" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2071,7 +2108,7 @@
         <xdr:cNvPr id="2052" name="Text Box 1028" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2167,7 @@
         <xdr:cNvPr id="2053" name="Text Box 1029" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,7 +2226,7 @@
         <xdr:cNvPr id="2055" name="Text Box 1031" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2285,7 @@
         <xdr:cNvPr id="2056" name="Text Box 1032" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2307,7 +2344,7 @@
         <xdr:cNvPr id="2057" name="Text Box 1033" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2403,7 @@
         <xdr:cNvPr id="2058" name="Text Box 1034" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2462,7 @@
         <xdr:cNvPr id="2059" name="Text Box 1035" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2526,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2923,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3063,7 +3100,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3285,7 +3322,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3774,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3906,31 +3943,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+      <sheetName val="Regions"/>
+      <sheetName val="Region-Time Slices"/>
+      <sheetName val="TimePeriods"/>
+      <sheetName val="Import Settings"/>
+      <sheetName val="Interpol_Extrapol_Defaults"/>
+      <sheetName val="Constants"/>
+      <sheetName val="Defaults"/>
+      <sheetName val="CPI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="season_info" displayName="season_info" ref="K4:L16" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90224694-EE63-4ABC-9297-AB63CB1A1D7F}" name="season_info2" displayName="season_info2" ref="K4:L16" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Season"/>
+    <tableColumn id="1" xr3:uid="{B98A10FD-44F7-4E1C-B697-1F9915227BC8}" name="Month"/>
+    <tableColumn id="2" xr3:uid="{9B83B8C3-97CC-4A62-8C08-B1F0D8EBB938}" name="Season"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="weekly_info" displayName="weekly_info" ref="N4:O11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CF4CA5A-253E-433A-85B9-AFDEA52AACAB}" name="weekly_info3" displayName="weekly_info3" ref="N4:O11" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Day"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{A228BFBE-A872-426A-B0A9-3C4C603AD3CB}" name="Day"/>
+    <tableColumn id="2" xr3:uid="{0BC14070-CF92-42D1-BB24-90E18C8E60C8}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="daynite_info" displayName="daynite_info" ref="Q4:R28" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7EF17D7E-DA73-4612-9062-3728FB92AD1D}" name="daynite_info7" displayName="daynite_info7" ref="Q4:R28" totalsRowShown="0">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Hour"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
+    <tableColumn id="1" xr3:uid="{15A4E9E6-6EB3-4E8B-A64D-9992514AAFEA}" name="Hour"/>
+    <tableColumn id="2" xr3:uid="{9BA2D8D9-7EE1-486A-9C49-105AADE759D5}" name="Type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4256,2833 +4322,2832 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3D08AF-561B-4741-93FB-876D250B4223}">
-  <sheetPr codeName="Sheet9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3379E1F-C583-48F0-B411-B9FA6A220D7D}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="44" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="44" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="44" customWidth="1"/>
-    <col min="13" max="13" width="10" style="44" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="44"/>
+    <col min="1" max="4" width="21.7109375" style="45" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="45" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="45" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="10" style="45" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="45" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="44"/>
+      <c r="U5" s="44"/>
+      <c r="V5" s="44"/>
+      <c r="W5" s="44"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="44"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44"/>
+      <c r="P8" s="44"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="44"/>
+      <c r="U8" s="44"/>
+      <c r="V8" s="44"/>
+      <c r="W8" s="44"/>
+      <c r="X8" s="44"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="44"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="44"/>
+      <c r="U9" s="44"/>
+      <c r="V9" s="44"/>
+      <c r="W9" s="44"/>
+      <c r="X9" s="44"/>
+      <c r="Y9" s="44"/>
+      <c r="Z9" s="44"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="44"/>
+      <c r="T10" s="44"/>
+      <c r="U10" s="44"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="44"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="44"/>
+      <c r="V11" s="44"/>
+      <c r="W11" s="44"/>
+      <c r="X11" s="44"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="44"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
+      <c r="A16" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
+      <c r="W17" s="44"/>
+      <c r="X17" s="44"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="44"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-    </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="44"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
+      <c r="B21" s="56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="B23" s="53" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44"/>
+      <c r="U24" s="44"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="44"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="44"/>
+      <c r="Z24" s="44"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44"/>
+      <c r="U25" s="44"/>
+      <c r="V25" s="44"/>
+      <c r="W25" s="44"/>
+      <c r="X25" s="44"/>
+      <c r="Y25" s="44"/>
+      <c r="Z25" s="44"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
+      <c r="A26" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
+      <c r="U26" s="44"/>
+      <c r="V26" s="44"/>
+      <c r="W26" s="44"/>
+      <c r="X26" s="44"/>
+      <c r="Y26" s="44"/>
+      <c r="Z26" s="44"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="44"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
+      <c r="W28" s="44"/>
+      <c r="X28" s="44"/>
+      <c r="Y28" s="44"/>
+      <c r="Z28" s="44"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
+      <c r="A29" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" s="57">
+        <v>1</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
+      <c r="W29" s="44"/>
+      <c r="X29" s="44"/>
+      <c r="Y29" s="44"/>
+      <c r="Z29" s="44"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
+      <c r="A30" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="44"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="44"/>
+      <c r="Z30" s="44"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
+      <c r="A31" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
+      <c r="W31" s="44"/>
+      <c r="X31" s="44"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="44"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="61" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+      <c r="M32" s="44"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="44"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="44"/>
+      <c r="O33" s="44"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44"/>
+      <c r="U34" s="44"/>
+      <c r="V34" s="44"/>
+      <c r="W34" s="44"/>
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="44"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="44"/>
+      <c r="W35" s="44"/>
+      <c r="X35" s="44"/>
+      <c r="Y35" s="44"/>
+      <c r="Z35" s="44"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="44"/>
+      <c r="P36" s="44"/>
+      <c r="Q36" s="44"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="44"/>
+      <c r="T36" s="44"/>
+      <c r="U36" s="44"/>
+      <c r="V36" s="44"/>
+      <c r="W36" s="44"/>
+      <c r="X36" s="44"/>
+      <c r="Y36" s="44"/>
+      <c r="Z36" s="44"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="44"/>
+      <c r="W37" s="44"/>
+      <c r="X37" s="44"/>
+      <c r="Y37" s="44"/>
+      <c r="Z37" s="44"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="44"/>
+      <c r="X38" s="44"/>
+      <c r="Y38" s="44"/>
+      <c r="Z38" s="44"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="44"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
+      <c r="M40" s="44"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="44"/>
+      <c r="W40" s="44"/>
+      <c r="X40" s="44"/>
+      <c r="Y40" s="44"/>
+      <c r="Z40" s="44"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="44"/>
+      <c r="O41" s="44"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44"/>
+      <c r="U41" s="44"/>
+      <c r="V41" s="44"/>
+      <c r="W41" s="44"/>
+      <c r="X41" s="44"/>
+      <c r="Y41" s="44"/>
+      <c r="Z41" s="44"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="44"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="44"/>
+      <c r="O42" s="44"/>
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="44"/>
+      <c r="W42" s="44"/>
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44"/>
+      <c r="Z42" s="44"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44"/>
+      <c r="U43" s="44"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="44"/>
+      <c r="X43" s="44"/>
+      <c r="Y43" s="44"/>
+      <c r="Z43" s="44"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
+      <c r="P44" s="44"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="44"/>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="44"/>
+      <c r="O45" s="44"/>
+      <c r="P45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="44"/>
+      <c r="S45" s="44"/>
+      <c r="T45" s="44"/>
+      <c r="U45" s="44"/>
+      <c r="V45" s="44"/>
+      <c r="W45" s="44"/>
+      <c r="X45" s="44"/>
+      <c r="Y45" s="44"/>
+      <c r="Z45" s="44"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="44"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="44"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="44"/>
+      <c r="O47" s="44"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="44"/>
+      <c r="O48" s="44"/>
+      <c r="P48" s="44"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="44"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="44"/>
+      <c r="P49" s="44"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="44"/>
+      <c r="T49" s="44"/>
+      <c r="U49" s="44"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="44"/>
+      <c r="V50" s="44"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="44"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="44"/>
+      <c r="V52" s="44"/>
+      <c r="W52" s="44"/>
+      <c r="X52" s="44"/>
+      <c r="Y52" s="44"/>
+      <c r="Z52" s="44"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="44"/>
+      <c r="X53" s="44"/>
+      <c r="Y53" s="44"/>
+      <c r="Z53" s="44"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="Z54" s="44"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="44"/>
+      <c r="W55" s="44"/>
+      <c r="X55" s="44"/>
+      <c r="Y55" s="44"/>
+      <c r="Z55" s="44"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="43"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="44"/>
+      <c r="V56" s="44"/>
+      <c r="W56" s="44"/>
+      <c r="X56" s="44"/>
+      <c r="Y56" s="44"/>
+      <c r="Z56" s="44"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="44"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="44"/>
+      <c r="V57" s="44"/>
+      <c r="W57" s="44"/>
+      <c r="X57" s="44"/>
+      <c r="Y57" s="44"/>
+      <c r="Z57" s="44"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="Y58" s="44"/>
+      <c r="Z58" s="44"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="44"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="44"/>
+      <c r="V59" s="44"/>
+      <c r="W59" s="44"/>
+      <c r="X59" s="44"/>
+      <c r="Y59" s="44"/>
+      <c r="Z59" s="44"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="43"/>
-      <c r="Z60" s="43"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="44"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="44"/>
+      <c r="V60" s="44"/>
+      <c r="W60" s="44"/>
+      <c r="X60" s="44"/>
+      <c r="Y60" s="44"/>
+      <c r="Z60" s="44"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="44"/>
+      <c r="Z69" s="44"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="44"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
+      <c r="X74" s="44"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="44"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
+      <c r="X75" s="44"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="44"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="44"/>
+      <c r="V76" s="44"/>
+      <c r="W76" s="44"/>
+      <c r="X76" s="44"/>
+      <c r="Y76" s="44"/>
+      <c r="Z76" s="44"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="44"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
+      <c r="U78" s="44"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+      <c r="Y78" s="44"/>
+      <c r="Z78" s="44"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
+      <c r="U79" s="44"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+      <c r="Y79" s="44"/>
+      <c r="Z79" s="44"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
+      <c r="U80" s="44"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="44"/>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="44"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
+      <c r="U81" s="44"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="44"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="43"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="44"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="43"/>
-      <c r="Z83" s="43"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="44"/>
+      <c r="L83" s="44"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="44"/>
+      <c r="O83" s="44"/>
+      <c r="P83" s="44"/>
+      <c r="Q83" s="44"/>
+      <c r="R83" s="44"/>
+      <c r="S83" s="44"/>
+      <c r="T83" s="44"/>
+      <c r="U83" s="44"/>
+      <c r="V83" s="44"/>
+      <c r="W83" s="44"/>
+      <c r="X83" s="44"/>
+      <c r="Y83" s="44"/>
+      <c r="Z83" s="44"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="43"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="43"/>
-      <c r="Z84" s="43"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="Q84" s="44"/>
+      <c r="R84" s="44"/>
+      <c r="S84" s="44"/>
+      <c r="T84" s="44"/>
+      <c r="U84" s="44"/>
+      <c r="V84" s="44"/>
+      <c r="W84" s="44"/>
+      <c r="X84" s="44"/>
+      <c r="Y84" s="44"/>
+      <c r="Z84" s="44"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="43"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
-      <c r="X85" s="43"/>
-      <c r="Y85" s="43"/>
-      <c r="Z85" s="43"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="44"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="44"/>
+      <c r="O85" s="44"/>
+      <c r="P85" s="44"/>
+      <c r="Q85" s="44"/>
+      <c r="R85" s="44"/>
+      <c r="S85" s="44"/>
+      <c r="T85" s="44"/>
+      <c r="U85" s="44"/>
+      <c r="V85" s="44"/>
+      <c r="W85" s="44"/>
+      <c r="X85" s="44"/>
+      <c r="Y85" s="44"/>
+      <c r="Z85" s="44"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="43"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
-      <c r="W86" s="43"/>
-      <c r="X86" s="43"/>
-      <c r="Y86" s="43"/>
-      <c r="Z86" s="43"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="44"/>
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="44"/>
+      <c r="S86" s="44"/>
+      <c r="T86" s="44"/>
+      <c r="U86" s="44"/>
+      <c r="V86" s="44"/>
+      <c r="W86" s="44"/>
+      <c r="X86" s="44"/>
+      <c r="Y86" s="44"/>
+      <c r="Z86" s="44"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="43"/>
-      <c r="Z87" s="43"/>
+      <c r="A87" s="44"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="44"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44"/>
+      <c r="N87" s="44"/>
+      <c r="O87" s="44"/>
+      <c r="P87" s="44"/>
+      <c r="Q87" s="44"/>
+      <c r="R87" s="44"/>
+      <c r="S87" s="44"/>
+      <c r="T87" s="44"/>
+      <c r="U87" s="44"/>
+      <c r="V87" s="44"/>
+      <c r="W87" s="44"/>
+      <c r="X87" s="44"/>
+      <c r="Y87" s="44"/>
+      <c r="Z87" s="44"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="43"/>
-      <c r="Y88" s="43"/>
-      <c r="Z88" s="43"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="44"/>
+      <c r="L88" s="44"/>
+      <c r="M88" s="44"/>
+      <c r="N88" s="44"/>
+      <c r="O88" s="44"/>
+      <c r="P88" s="44"/>
+      <c r="Q88" s="44"/>
+      <c r="R88" s="44"/>
+      <c r="S88" s="44"/>
+      <c r="T88" s="44"/>
+      <c r="U88" s="44"/>
+      <c r="V88" s="44"/>
+      <c r="W88" s="44"/>
+      <c r="X88" s="44"/>
+      <c r="Y88" s="44"/>
+      <c r="Z88" s="44"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="43"/>
-      <c r="U89" s="43"/>
-      <c r="V89" s="43"/>
-      <c r="W89" s="43"/>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="43"/>
-      <c r="Z89" s="43"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
+      <c r="E89" s="44"/>
+      <c r="F89" s="44"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="44"/>
+      <c r="L89" s="44"/>
+      <c r="M89" s="44"/>
+      <c r="N89" s="44"/>
+      <c r="O89" s="44"/>
+      <c r="P89" s="44"/>
+      <c r="Q89" s="44"/>
+      <c r="R89" s="44"/>
+      <c r="S89" s="44"/>
+      <c r="T89" s="44"/>
+      <c r="U89" s="44"/>
+      <c r="V89" s="44"/>
+      <c r="W89" s="44"/>
+      <c r="X89" s="44"/>
+      <c r="Y89" s="44"/>
+      <c r="Z89" s="44"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="43"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="43"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="43"/>
-      <c r="W90" s="43"/>
-      <c r="X90" s="43"/>
-      <c r="Y90" s="43"/>
-      <c r="Z90" s="43"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="44"/>
+      <c r="L90" s="44"/>
+      <c r="M90" s="44"/>
+      <c r="N90" s="44"/>
+      <c r="O90" s="44"/>
+      <c r="P90" s="44"/>
+      <c r="Q90" s="44"/>
+      <c r="R90" s="44"/>
+      <c r="S90" s="44"/>
+      <c r="T90" s="44"/>
+      <c r="U90" s="44"/>
+      <c r="V90" s="44"/>
+      <c r="W90" s="44"/>
+      <c r="X90" s="44"/>
+      <c r="Y90" s="44"/>
+      <c r="Z90" s="44"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="43"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="43"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="43"/>
-      <c r="Z91" s="43"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
+      <c r="K91" s="44"/>
+      <c r="L91" s="44"/>
+      <c r="M91" s="44"/>
+      <c r="N91" s="44"/>
+      <c r="O91" s="44"/>
+      <c r="P91" s="44"/>
+      <c r="Q91" s="44"/>
+      <c r="R91" s="44"/>
+      <c r="S91" s="44"/>
+      <c r="T91" s="44"/>
+      <c r="U91" s="44"/>
+      <c r="V91" s="44"/>
+      <c r="W91" s="44"/>
+      <c r="X91" s="44"/>
+      <c r="Y91" s="44"/>
+      <c r="Z91" s="44"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="43"/>
-      <c r="X92" s="43"/>
-      <c r="Y92" s="43"/>
-      <c r="Z92" s="43"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
+      <c r="K92" s="44"/>
+      <c r="L92" s="44"/>
+      <c r="M92" s="44"/>
+      <c r="N92" s="44"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="44"/>
+      <c r="Q92" s="44"/>
+      <c r="R92" s="44"/>
+      <c r="S92" s="44"/>
+      <c r="T92" s="44"/>
+      <c r="U92" s="44"/>
+      <c r="V92" s="44"/>
+      <c r="W92" s="44"/>
+      <c r="X92" s="44"/>
+      <c r="Y92" s="44"/>
+      <c r="Z92" s="44"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
-      <c r="Q93" s="43"/>
-      <c r="R93" s="43"/>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="43"/>
-      <c r="X93" s="43"/>
-      <c r="Y93" s="43"/>
-      <c r="Z93" s="43"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="44"/>
+      <c r="L93" s="44"/>
+      <c r="M93" s="44"/>
+      <c r="N93" s="44"/>
+      <c r="O93" s="44"/>
+      <c r="P93" s="44"/>
+      <c r="Q93" s="44"/>
+      <c r="R93" s="44"/>
+      <c r="S93" s="44"/>
+      <c r="T93" s="44"/>
+      <c r="U93" s="44"/>
+      <c r="V93" s="44"/>
+      <c r="W93" s="44"/>
+      <c r="X93" s="44"/>
+      <c r="Y93" s="44"/>
+      <c r="Z93" s="44"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
-      <c r="Q94" s="43"/>
-      <c r="R94" s="43"/>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="43"/>
-      <c r="X94" s="43"/>
-      <c r="Y94" s="43"/>
-      <c r="Z94" s="43"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="44"/>
+      <c r="L94" s="44"/>
+      <c r="M94" s="44"/>
+      <c r="N94" s="44"/>
+      <c r="O94" s="44"/>
+      <c r="P94" s="44"/>
+      <c r="Q94" s="44"/>
+      <c r="R94" s="44"/>
+      <c r="S94" s="44"/>
+      <c r="T94" s="44"/>
+      <c r="U94" s="44"/>
+      <c r="V94" s="44"/>
+      <c r="W94" s="44"/>
+      <c r="X94" s="44"/>
+      <c r="Y94" s="44"/>
+      <c r="Z94" s="44"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="43"/>
-      <c r="Z95" s="43"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
+      <c r="K95" s="44"/>
+      <c r="L95" s="44"/>
+      <c r="M95" s="44"/>
+      <c r="N95" s="44"/>
+      <c r="O95" s="44"/>
+      <c r="P95" s="44"/>
+      <c r="Q95" s="44"/>
+      <c r="R95" s="44"/>
+      <c r="S95" s="44"/>
+      <c r="T95" s="44"/>
+      <c r="U95" s="44"/>
+      <c r="V95" s="44"/>
+      <c r="W95" s="44"/>
+      <c r="X95" s="44"/>
+      <c r="Y95" s="44"/>
+      <c r="Z95" s="44"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
+      <c r="K96" s="44"/>
+      <c r="L96" s="44"/>
+      <c r="M96" s="44"/>
+      <c r="N96" s="44"/>
+      <c r="O96" s="44"/>
+      <c r="P96" s="44"/>
+      <c r="Q96" s="44"/>
+      <c r="R96" s="44"/>
+      <c r="S96" s="44"/>
+      <c r="T96" s="44"/>
+      <c r="U96" s="44"/>
+      <c r="V96" s="44"/>
+      <c r="W96" s="44"/>
+      <c r="X96" s="44"/>
+      <c r="Y96" s="44"/>
+      <c r="Z96" s="44"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="43"/>
-      <c r="Z97" s="43"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
+      <c r="K97" s="44"/>
+      <c r="L97" s="44"/>
+      <c r="M97" s="44"/>
+      <c r="N97" s="44"/>
+      <c r="O97" s="44"/>
+      <c r="P97" s="44"/>
+      <c r="Q97" s="44"/>
+      <c r="R97" s="44"/>
+      <c r="S97" s="44"/>
+      <c r="T97" s="44"/>
+      <c r="U97" s="44"/>
+      <c r="V97" s="44"/>
+      <c r="W97" s="44"/>
+      <c r="X97" s="44"/>
+      <c r="Y97" s="44"/>
+      <c r="Z97" s="44"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="43"/>
-      <c r="S98" s="43"/>
-      <c r="T98" s="43"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="43"/>
-      <c r="Y98" s="43"/>
-      <c r="Z98" s="43"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
+      <c r="K98" s="44"/>
+      <c r="L98" s="44"/>
+      <c r="M98" s="44"/>
+      <c r="N98" s="44"/>
+      <c r="O98" s="44"/>
+      <c r="P98" s="44"/>
+      <c r="Q98" s="44"/>
+      <c r="R98" s="44"/>
+      <c r="S98" s="44"/>
+      <c r="T98" s="44"/>
+      <c r="U98" s="44"/>
+      <c r="V98" s="44"/>
+      <c r="W98" s="44"/>
+      <c r="X98" s="44"/>
+      <c r="Y98" s="44"/>
+      <c r="Z98" s="44"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="43"/>
-      <c r="S99" s="43"/>
-      <c r="T99" s="43"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
-      <c r="X99" s="43"/>
-      <c r="Y99" s="43"/>
-      <c r="Z99" s="43"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="44"/>
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="44"/>
+      <c r="S99" s="44"/>
+      <c r="T99" s="44"/>
+      <c r="U99" s="44"/>
+      <c r="V99" s="44"/>
+      <c r="W99" s="44"/>
+      <c r="X99" s="44"/>
+      <c r="Y99" s="44"/>
+      <c r="Z99" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7095,8 +7160,8 @@
     <mergeCell ref="B30:D30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B30" r:id="rId1" xr:uid="{280B3652-D35F-442B-B752-87B78E114D7A}"/>
-    <hyperlink ref="B32" r:id="rId2" xr:uid="{730BD513-147A-4482-A5D1-57CEC7C20E14}"/>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{C39BB54B-EFB7-445A-B7E6-1F0A432C7E7C}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{60647036-2547-4FCD-BFAF-156211165E2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -7106,7 +7171,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7788,11 +7852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AB39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7836,19 +7899,19 @@
         <v>126</v>
       </c>
       <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" t="s">
         <v>127</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>128</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>129</v>
       </c>
-      <c r="Q4" t="s">
-        <v>130</v>
-      </c>
       <c r="R4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
@@ -7860,26 +7923,26 @@
         <f>Regions!C3</f>
         <v>IE</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="42" t="s">
         <v>125</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -7895,20 +7958,26 @@
         <f>Regions!D3</f>
         <v>National</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="E6" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>161</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -7924,20 +7993,24 @@
         <f>Regions!E3</f>
         <v>IE-CW</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="E7" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42" t="s">
+        <v>163</v>
+      </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -7953,20 +8026,24 @@
         <f>Regions!F3</f>
         <v>IE-D</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42" t="s">
+        <v>165</v>
+      </c>
       <c r="K8">
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -7982,17 +8059,20 @@
         <f>Regions!G3</f>
         <v>IE-KE</v>
       </c>
+      <c r="G9" t="s">
+        <v>166</v>
+      </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -8012,13 +8092,13 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>5</v>
@@ -8039,13 +8119,13 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="N11">
         <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -8066,13 +8146,13 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -8087,13 +8167,13 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -8108,13 +8188,13 @@
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
@@ -8129,13 +8209,13 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="Q15">
         <v>10</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
@@ -8150,13 +8230,13 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>11</v>
       </c>
       <c r="R16" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
@@ -8171,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="R17" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
@@ -8185,7 +8265,7 @@
         <v>13</v>
       </c>
       <c r="R18" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
@@ -8199,7 +8279,7 @@
         <v>14</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
@@ -8212,7 +8292,7 @@
         <v>15</v>
       </c>
       <c r="R20" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
@@ -8225,7 +8305,7 @@
         <v>16</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
@@ -8238,7 +8318,7 @@
         <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
@@ -8251,7 +8331,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
@@ -8264,7 +8344,7 @@
         <v>19</v>
       </c>
       <c r="R24" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
@@ -8277,7 +8357,7 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -8290,7 +8370,7 @@
         <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
@@ -8303,7 +8383,7 @@
         <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
@@ -8316,7 +8396,7 @@
         <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -8388,7 +8468,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:J51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -8430,31 +8509,31 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="41" t="s">
-        <v>152</v>
-      </c>
       <c r="I12" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
@@ -9057,7 +9136,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -9131,7 +9209,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9539,7 +9616,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9949,7 +10025,7 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C26" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>45</v>
@@ -9984,7 +10060,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet7"/>
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10001,10 +10076,10 @@
         <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10024,25 +10099,25 @@
         <v>59</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>134</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
@@ -10065,7 +10140,7 @@
         <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N4" t="s">
         <v>61</v>
@@ -10083,10 +10158,10 @@
         <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>62</v>
@@ -10095,10 +10170,10 @@
         <v>62</v>
       </c>
       <c r="M5" t="s">
+        <v>136</v>
+      </c>
+      <c r="N5" t="s">
         <v>137</v>
-      </c>
-      <c r="N5" t="s">
-        <v>138</v>
       </c>
       <c r="O5">
         <v>1000</v>
@@ -10125,10 +10200,10 @@
         <v>61</v>
       </c>
       <c r="M6" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" t="s">
         <v>145</v>
-      </c>
-      <c r="N6" t="s">
-        <v>146</v>
       </c>
       <c r="O6">
         <v>1000</v>
@@ -10140,7 +10215,7 @@
         <v>EUR02</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N7" t="s">
         <v>61</v>
@@ -10155,7 +10230,7 @@
         <v>EUR03</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N8" t="s">
         <v>61</v>
@@ -10170,7 +10245,7 @@
         <v>EUR04</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
         <v>61</v>
@@ -10185,10 +10260,10 @@
         <v>EUR05</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O10">
         <v>1000000</v>
@@ -10200,7 +10275,7 @@
         <v>EUR06</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
@@ -10215,7 +10290,7 @@
         <v>EUR07</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N12" t="s">
         <v>61</v>
@@ -10245,10 +10320,10 @@
         <v>EUR09</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O14">
         <v>1</v>
@@ -10260,10 +10335,10 @@
         <v>EUR10</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -10332,7 +10407,6 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
   <dimension ref="B2:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF76D145-6C77-451A-8F59-9CDFA2CB17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4301C-F6E1-47DB-AF32-B6B8F053848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32160" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="173">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -306,12 +306,6 @@
   </si>
   <si>
     <t>P12</t>
-  </si>
-  <si>
-    <t>EUR18</t>
-  </si>
-  <si>
-    <t>EUR19</t>
   </si>
   <si>
     <t>Development</t>
@@ -593,9 +587,6 @@
     <t>P23</t>
   </si>
   <si>
-    <t>EUR20</t>
-  </si>
-  <si>
     <t>SRV</t>
   </si>
   <si>
@@ -657,6 +648,9 @@
   </si>
   <si>
     <t>James Glynn (UCC, james.glynn@ucc.ie)</t>
+  </si>
+  <si>
+    <t>MEUR2018</t>
   </si>
 </sst>
 </file>
@@ -4260,23 +4254,25 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="44" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="44" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="44" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="44" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="44" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="44" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="44" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="44" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="44" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="44" customWidth="1"/>
     <col min="13" max="13" width="10" style="44" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="44" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="44"/>
+    <col min="14" max="14" width="11.3984375" style="44" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="44" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="42"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -4304,7 +4300,7 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -4332,7 +4328,7 @@
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -4360,7 +4356,7 @@
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -4388,7 +4384,7 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -4416,7 +4412,7 @@
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -4444,7 +4440,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -4472,7 +4468,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -4500,7 +4496,7 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -4528,7 +4524,7 @@
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -4556,7 +4552,7 @@
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -4584,7 +4580,7 @@
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -4612,7 +4608,7 @@
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -4640,7 +4636,7 @@
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -4668,7 +4664,7 @@
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -4696,9 +4692,9 @@
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -4726,7 +4722,7 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="47"/>
       <c r="B17" s="47"/>
       <c r="C17" s="47"/>
@@ -4754,7 +4750,7 @@
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="47"/>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -4782,12 +4778,12 @@
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="50" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
@@ -4814,12 +4810,12 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="58"/>
@@ -4846,12 +4842,12 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B21" s="53" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
@@ -4878,7 +4874,7 @@
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="50"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -4906,12 +4902,12 @@
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B23" s="58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -4938,7 +4934,7 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="50"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -4966,7 +4962,7 @@
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="50"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -4994,12 +4990,12 @@
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C26" s="58"/>
       <c r="D26" s="58"/>
@@ -5026,7 +5022,7 @@
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="50"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -5054,7 +5050,7 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="50"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -5082,9 +5078,9 @@
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B29" s="54">
         <v>1</v>
@@ -5114,12 +5110,12 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="50" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B30" s="60" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C30" s="58"/>
       <c r="D30" s="58"/>
@@ -5146,12 +5142,12 @@
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B31" s="58" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C31" s="58"/>
       <c r="D31" s="58"/>
@@ -5178,10 +5174,10 @@
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="56"/>
       <c r="B32" s="57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
@@ -5208,7 +5204,7 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -5236,7 +5232,7 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -5264,7 +5260,7 @@
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -5292,7 +5288,7 @@
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -5320,7 +5316,7 @@
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -5348,7 +5344,7 @@
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -5376,7 +5372,7 @@
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -5404,7 +5400,7 @@
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -5432,7 +5428,7 @@
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -5460,7 +5456,7 @@
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -5488,7 +5484,7 @@
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -5516,7 +5512,7 @@
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -5544,7 +5540,7 @@
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -5572,7 +5568,7 @@
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -5600,7 +5596,7 @@
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -5628,7 +5624,7 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -5656,7 +5652,7 @@
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -5684,7 +5680,7 @@
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -5712,7 +5708,7 @@
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -5740,7 +5736,7 @@
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -5768,7 +5764,7 @@
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -5796,7 +5792,7 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -5824,7 +5820,7 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -5852,7 +5848,7 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -5880,7 +5876,7 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -5908,7 +5904,7 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -5936,7 +5932,7 @@
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -5964,7 +5960,7 @@
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -5992,7 +5988,7 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -6020,7 +6016,7 @@
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -6048,7 +6044,7 @@
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -6076,7 +6072,7 @@
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -6104,7 +6100,7 @@
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -6132,7 +6128,7 @@
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -6160,7 +6156,7 @@
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -6188,7 +6184,7 @@
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -6216,7 +6212,7 @@
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -6244,7 +6240,7 @@
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -6272,7 +6268,7 @@
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -6300,7 +6296,7 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -6328,7 +6324,7 @@
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -6356,7 +6352,7 @@
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -6384,7 +6380,7 @@
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -6412,7 +6408,7 @@
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -6440,7 +6436,7 @@
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -6468,7 +6464,7 @@
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -6496,7 +6492,7 @@
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -6524,7 +6520,7 @@
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -6552,7 +6548,7 @@
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -6580,7 +6576,7 @@
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -6608,7 +6604,7 @@
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -6636,7 +6632,7 @@
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -6664,7 +6660,7 @@
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -6692,7 +6688,7 @@
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -6720,7 +6716,7 @@
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -6748,7 +6744,7 @@
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -6776,7 +6772,7 @@
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -6804,7 +6800,7 @@
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -6832,7 +6828,7 @@
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -6860,7 +6856,7 @@
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -6888,7 +6884,7 @@
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -6916,7 +6912,7 @@
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -6944,7 +6940,7 @@
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -6972,7 +6968,7 @@
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -7000,7 +6996,7 @@
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -7028,7 +7024,7 @@
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -7056,7 +7052,7 @@
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -7113,38 +7109,38 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="16" width="7.1328125" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" customWidth="1"/>
     <col min="23" max="23" width="5" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" customWidth="1"/>
     <col min="26" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="str">
         <f t="array" ref="C3">IF(INDEX(C5:C7,$A$4)&lt;&gt;0,INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -7258,21 +7254,21 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>A11</f>
@@ -7379,9 +7375,9 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>C5</f>
@@ -7415,9 +7411,9 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="str">
         <f t="shared" ref="C7:AC7" si="0">D5</f>
@@ -7529,225 +7525,225 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B22" s="5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B25" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -7791,20 +7787,20 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:AB39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="11" t="s">
         <v>6</v>
@@ -7815,7 +7811,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
@@ -7833,25 +7829,25 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4" t="s">
         <v>126</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>127</v>
       </c>
-      <c r="N4" t="s">
+      <c r="Q4" t="s">
         <v>128</v>
       </c>
-      <c r="O4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>130</v>
-      </c>
       <c r="R4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>37</v>
@@ -7861,34 +7857,34 @@
         <v>IE</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="str">
@@ -7902,22 +7898,22 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="str">
@@ -7931,22 +7927,22 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="str">
@@ -7960,22 +7956,22 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N8">
         <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q8">
         <v>3</v>
       </c>
       <c r="R8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="str">
@@ -7986,22 +7982,22 @@
         <v>4</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N9">
         <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>4</v>
       </c>
       <c r="R9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="str">
@@ -8012,22 +8008,22 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>5</v>
       </c>
       <c r="R10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="str">
@@ -8039,22 +8035,22 @@
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>6</v>
       </c>
       <c r="O11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>6</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -8066,16 +8062,16 @@
         <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>7</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="str">
@@ -8087,16 +8083,16 @@
         <v>8</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>8</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="str">
@@ -8108,16 +8104,16 @@
         <v>9</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q14">
         <v>9</v>
       </c>
       <c r="R14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="str">
@@ -8129,16 +8125,16 @@
         <v>10</v>
       </c>
       <c r="L15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q15">
         <v>10</v>
       </c>
       <c r="R15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="str">
@@ -8150,16 +8146,16 @@
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q16">
         <v>11</v>
       </c>
       <c r="R16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="str">
@@ -8171,10 +8167,10 @@
         <v>12</v>
       </c>
       <c r="R17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="str">
@@ -8185,10 +8181,10 @@
         <v>13</v>
       </c>
       <c r="R18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="str">
@@ -8199,10 +8195,10 @@
         <v>14</v>
       </c>
       <c r="R19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="C20" s="8" t="str">
         <f>Regions!R3</f>
@@ -8212,10 +8208,10 @@
         <v>15</v>
       </c>
       <c r="R20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="C21" s="8" t="str">
         <f>Regions!S3</f>
@@ -8225,10 +8221,10 @@
         <v>16</v>
       </c>
       <c r="R21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="C22" s="8" t="str">
         <f>Regions!T3</f>
@@ -8238,10 +8234,10 @@
         <v>17</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="C23" s="8" t="str">
         <f>Regions!U3</f>
@@ -8251,10 +8247,10 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="C24" s="8" t="str">
         <f>Regions!V3</f>
@@ -8264,10 +8260,10 @@
         <v>19</v>
       </c>
       <c r="R24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="C25" s="8" t="str">
         <f>Regions!W3</f>
@@ -8277,10 +8273,10 @@
         <v>20</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="C26" s="8" t="str">
         <f>Regions!X3</f>
@@ -8290,10 +8286,10 @@
         <v>21</v>
       </c>
       <c r="R26" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="C27" s="8" t="str">
         <f>Regions!Y3</f>
@@ -8303,10 +8299,10 @@
         <v>22</v>
       </c>
       <c r="R27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="C28" s="8" t="str">
         <f>Regions!Z3</f>
@@ -8316,41 +8312,41 @@
         <v>23</v>
       </c>
       <c r="R28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="C29" s="8" t="str">
         <f>Regions!AA3</f>
         <v>IE-SO</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="C30" s="8" t="str">
         <f>Regions!AB3</f>
         <v>IE-CN</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="C31" s="8" t="str">
         <f>Regions!AC3</f>
         <v>IE-DL</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="C32" s="8" t="str">
         <f>Regions!AD3</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
@@ -8359,19 +8355,19 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
   </sheetData>
@@ -8395,69 +8391,69 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="10" width="13.7109375" customWidth="1"/>
+    <col min="2" max="10" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H12" s="41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I12" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>1</v>
       </c>
@@ -8486,7 +8482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>1</v>
       </c>
@@ -8515,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="13">
         <v>1</v>
       </c>
@@ -8544,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="13">
         <v>20</v>
       </c>
@@ -8573,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>20</v>
       </c>
@@ -8602,7 +8598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18" s="13">
         <v>5</v>
       </c>
@@ -8628,7 +8624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="13">
         <v>45</v>
       </c>
@@ -8654,7 +8650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" s="13">
         <v>25</v>
       </c>
@@ -8680,7 +8676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" s="13">
         <v>5</v>
       </c>
@@ -8706,7 +8702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D22" s="13">
         <v>5</v>
       </c>
@@ -8729,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D23" s="13">
         <v>5</v>
       </c>
@@ -8752,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D24" s="13">
         <v>5</v>
       </c>
@@ -8775,7 +8771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E25" s="13">
         <v>5</v>
       </c>
@@ -8795,7 +8791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F26" s="13">
         <v>5</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F27" s="13">
         <v>5</v>
       </c>
@@ -8829,7 +8825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G28" s="13">
         <v>5</v>
       </c>
@@ -8843,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G29" s="13">
         <v>5</v>
       </c>
@@ -8857,7 +8853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G30" s="13">
         <v>5</v>
       </c>
@@ -8871,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G31" s="13">
         <v>5</v>
       </c>
@@ -8885,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G32" s="13">
         <v>5</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G33" s="13">
         <v>5</v>
       </c>
@@ -8913,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G34" s="13">
         <v>5</v>
       </c>
@@ -8927,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.35">
       <c r="H35" s="13">
         <v>5</v>
       </c>
@@ -8938,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I36" s="18">
         <v>1</v>
       </c>
@@ -8946,7 +8942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I37" s="18">
         <v>1</v>
       </c>
@@ -8954,7 +8950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I38" s="18">
         <v>1</v>
       </c>
@@ -8962,7 +8958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I39" s="18">
         <v>1</v>
       </c>
@@ -8970,7 +8966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I40" s="18">
         <v>1</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I41" s="18">
         <v>1</v>
       </c>
@@ -8986,7 +8982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I42" s="18">
         <v>1</v>
       </c>
@@ -8994,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I43" s="18">
         <v>1</v>
       </c>
@@ -9002,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I44" s="18">
         <v>1</v>
       </c>
@@ -9010,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I45" s="18">
         <v>1</v>
       </c>
@@ -9018,32 +9014,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J46" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J47" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J48" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J51" s="18">
         <v>5</v>
       </c>
@@ -9064,17 +9060,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -9082,7 +9078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
@@ -9090,7 +9086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
@@ -9138,42 +9134,42 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -9191,7 +9187,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -9209,7 +9205,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -9227,7 +9223,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -9245,7 +9241,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -9263,7 +9259,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
         <v>56</v>
       </c>
@@ -9282,7 +9278,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
@@ -9302,7 +9298,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -9352,7 +9348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
@@ -9378,7 +9374,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
@@ -9404,7 +9400,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -9422,7 +9418,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -9440,7 +9436,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -9458,7 +9454,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -9476,7 +9472,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -9494,7 +9490,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -9512,7 +9508,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -9542,31 +9538,31 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -9586,7 +9582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
@@ -9594,7 +9590,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
@@ -9606,373 +9602,375 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B3,2))</f>
-        <v>EUR00</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B3,4))</f>
+        <v>MEUR2000</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G7" s="28">
         <f>CPI!$D$21/CPI!D3</f>
         <v>1.3926669328933141</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B4,2))</f>
-        <v>EUR01</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B4,4))</f>
+        <v>MEUR2001</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G8" s="26">
         <f>CPI!$D$21/CPI!D4</f>
         <v>1.3626878012654737</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B5,2))</f>
-        <v>EUR02</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B5,4))</f>
+        <v>MEUR2002</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G9" s="26">
         <f>CPI!$D$21/CPI!D5</f>
         <v>1.3346599424735295</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B6,2))</f>
-        <v>EUR03</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B6,4))</f>
+        <v>MEUR2003</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G10" s="26">
         <f>CPI!$D$21/CPI!D6</f>
         <v>1.3084901396799309</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B7,2))</f>
-        <v>EUR04</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B7,4))</f>
+        <v>MEUR2004</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G11" s="26">
         <f>CPI!$D$21/CPI!D7</f>
         <v>1.2828334702744419</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B8,2))</f>
-        <v>EUR05</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B8,4))</f>
+        <v>MEUR2005</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G12" s="26">
         <f>CPI!$D$21/CPI!D8</f>
         <v>1.2552186597597279</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B9,2))</f>
-        <v>EUR06</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B9,4))</f>
+        <v>MEUR2006</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G13" s="26">
         <f>CPI!$D$21/CPI!D9</f>
         <v>1.2281982972208687</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B10,2))</f>
-        <v>EUR07</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B10,4))</f>
+        <v>MEUR2007</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G14" s="26">
         <f>CPI!$D$21/CPI!D10</f>
         <v>1.2005848457682002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B11,2))</f>
-        <v>EUR08</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B11,4))</f>
+        <v>MEUR2008</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G15" s="26">
         <f>CPI!$D$21/CPI!D11</f>
         <v>1.1577481637108971</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B12,2))</f>
-        <v>EUR09</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B12,4))</f>
+        <v>MEUR2009</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G16" s="26">
         <f>CPI!$D$21/CPI!D12</f>
         <v>1.1462853106048485</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B13,2))</f>
-        <v>EUR10</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B13,4))</f>
+        <v>MEUR2010</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G17" s="26">
         <f>CPI!$D$21/CPI!D13</f>
         <v>1.1227084335013209</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B14,2))</f>
-        <v>EUR11</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B14,4))</f>
+        <v>MEUR2011</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G18" s="26">
         <f>CPI!$D$21/CPI!D14</f>
         <v>1.0889509539295061</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B15,2))</f>
-        <v>EUR12</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B15,4))</f>
+        <v>MEUR2012</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G19" s="26">
         <f>CPI!$D$21/CPI!D15</f>
         <v>1.0613557055843141</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B16,2))</f>
-        <v>EUR13</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B16,4))</f>
+        <v>MEUR2013</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G20" s="26">
         <f>CPI!$D$21/CPI!D16</f>
         <v>1.045670645895876</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B17,2))</f>
-        <v>EUR14</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B17,4))</f>
+        <v>MEUR2014</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G21" s="26">
         <f>CPI!$D$21/CPI!D17</f>
         <v>1.0394340416460002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B18,2))</f>
-        <v>EUR15</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B18,4))</f>
+        <v>MEUR2015</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G22" s="26">
         <f>CPI!$D$21/CPI!D18</f>
         <v>1.0383956459999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B19,2))</f>
-        <v>EUR16</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B19,4))</f>
+        <v>MEUR2016</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G23" s="26">
         <f>CPI!$D$21/CPI!D19</f>
         <v>1.0363230000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="str">
-        <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B20,2))</f>
-        <v>EUR17</v>
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B20,4))</f>
+        <v>MEUR2017</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G24" s="26">
         <f>CPI!$D$21/CPI!D20</f>
         <v>1.0190000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>65</v>
+      <c r="C25" s="7" t="str">
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B22,4))</f>
+        <v>MEUR2019</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G25" s="26">
         <f>CPI!$D$21/CPI!D22</f>
         <v>0.98522167487684731</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="7" t="s">
-        <v>153</v>
+    <row r="26" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="C26" s="7" t="str">
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B23,4))</f>
+        <v>MEUR2020</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="G26" s="26">
         <f>CPI!$D$21/CPI!D23</f>
         <v>0.9783730634328176</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="26"/>
     </row>
   </sheetData>
@@ -9988,26 +9986,26 @@
   <dimension ref="B2:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
@@ -10024,30 +10022,30 @@
         <v>59</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>60</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>50</v>
@@ -10065,7 +10063,7 @@
         <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N4" t="s">
         <v>61</v>
@@ -10074,19 +10072,19 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="str">
         <f>Constants!C7</f>
-        <v>EUR00</v>
+        <v>MEUR2000</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>62</v>
@@ -10095,19 +10093,19 @@
         <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="str">
         <f>Constants!C8</f>
-        <v>EUR01</v>
+        <v>MEUR2001</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>52</v>
@@ -10125,22 +10123,22 @@
         <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O6">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="str">
         <f>Constants!C9</f>
-        <v>EUR02</v>
+        <v>MEUR2002</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N7" t="s">
         <v>61</v>
@@ -10149,13 +10147,13 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="str">
         <f>Constants!C10</f>
-        <v>EUR03</v>
+        <v>MEUR2003</v>
       </c>
       <c r="M8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N8" t="s">
         <v>61</v>
@@ -10164,13 +10162,13 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="str">
         <f>Constants!C11</f>
-        <v>EUR04</v>
+        <v>MEUR2004</v>
       </c>
       <c r="M9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s">
         <v>61</v>
@@ -10179,28 +10177,28 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="str">
         <f>Constants!C12</f>
-        <v>EUR05</v>
+        <v>MEUR2005</v>
       </c>
       <c r="M10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O10">
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="str">
         <f>Constants!C13</f>
-        <v>EUR06</v>
+        <v>MEUR2006</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N11" t="s">
         <v>61</v>
@@ -10209,13 +10207,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="str">
         <f>Constants!C14</f>
-        <v>EUR07</v>
+        <v>MEUR2007</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N12" t="s">
         <v>61</v>
@@ -10224,10 +10222,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="str">
         <f>Constants!C15</f>
-        <v>EUR08</v>
+        <v>MEUR2008</v>
       </c>
       <c r="M13" t="s">
         <v>61</v>
@@ -10239,88 +10237,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="str">
         <f>Constants!C16</f>
-        <v>EUR09</v>
+        <v>MEUR2009</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="str">
         <f>Constants!C17</f>
-        <v>EUR10</v>
+        <v>MEUR2010</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="str">
         <f>Constants!C18</f>
-        <v>EUR11</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2011</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="str">
         <f>Constants!C19</f>
-        <v>EUR12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2012</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="str">
         <f>Constants!C20</f>
-        <v>EUR13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2013</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="str">
         <f>Constants!C21</f>
-        <v>EUR14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2014</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="str">
         <f>Constants!C22</f>
-        <v>EUR15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2015</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="str">
         <f>Constants!C23</f>
-        <v>EUR16</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2016</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="7" t="str">
         <f>Constants!C24</f>
-        <v>EUR17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2017</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="str">
         <f>Constants!C25</f>
-        <v>EUR19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+        <v>MEUR2019</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="str">
         <f>Constants!C26</f>
-        <v>EUR20</v>
+        <v>MEUR2020</v>
       </c>
     </row>
   </sheetData>
@@ -10339,13 +10337,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="4" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
         <v>38</v>
@@ -10354,7 +10352,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B3" s="32">
         <v>2000</v>
       </c>
@@ -10363,7 +10361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B4" s="32">
         <v>2001</v>
       </c>
@@ -10375,7 +10373,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B5" s="32">
         <v>2002</v>
       </c>
@@ -10387,7 +10385,7 @@
         <v>104.34620000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B6" s="32">
         <v>2003</v>
       </c>
@@ -10399,7 +10397,7 @@
         <v>106.43312400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B7" s="32">
         <v>2004</v>
       </c>
@@ -10411,7 +10409,7 @@
         <v>108.56178648000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B8" s="32">
         <v>2005</v>
       </c>
@@ -10423,7 +10421,7 @@
         <v>110.95014578256001</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B9" s="32">
         <v>2006</v>
       </c>
@@ -10435,7 +10433,7 @@
         <v>113.39104898977634</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B10" s="32">
         <v>2007</v>
       </c>
@@ -10447,7 +10445,7 @@
         <v>115.99904311654119</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B11" s="32">
         <v>2008</v>
       </c>
@@ -10459,7 +10457,7 @@
         <v>120.29100771185321</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>2009</v>
       </c>
@@ -10471,7 +10469,7 @@
         <v>121.49391778897174</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>2010</v>
       </c>
@@ -10483,7 +10481,7 @@
         <v>124.04529006254015</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B14" s="32">
         <v>2011</v>
       </c>
@@ -10495,7 +10493,7 @@
         <v>127.89069405447889</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B15" s="32">
         <v>2012</v>
       </c>
@@ -10507,7 +10505,7 @@
         <v>131.21585209989533</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B16" s="32">
         <v>2013</v>
       </c>
@@ -10519,7 +10517,7 @@
         <v>133.18408988139376</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B17" s="32">
         <v>2014</v>
       </c>
@@ -10531,7 +10529,7 @@
         <v>133.98319442068211</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>2015</v>
       </c>
@@ -10543,7 +10541,7 @@
         <v>134.1171776151028</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B19" s="37">
         <v>2016</v>
       </c>
@@ -10555,7 +10553,7 @@
         <v>134.385411970333</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B20" s="37">
         <v>2017</v>
       </c>
@@ -10567,7 +10565,7 @@
         <v>136.66996397382866</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B21" s="37">
         <v>2018</v>
       </c>
@@ -10579,7 +10577,7 @@
         <v>139.26669328933141</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B22" s="37">
         <v>2019</v>
       </c>
@@ -10591,7 +10589,7 @@
         <v>141.35569368867138</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B23" s="37">
         <v>2020</v>
       </c>
@@ -10603,7 +10601,7 @@
         <v>142.34518354449207</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B25" s="36" t="s">
         <v>40</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F4301C-F6E1-47DB-AF32-B6B8F053848E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3AC475-EA9C-4B78-BB64-321C448CD709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="173">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -1049,7 +1049,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1107,9 +1107,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4255,2830 +4252,2830 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.73046875" style="44" customWidth="1"/>
-    <col min="5" max="6" width="14.1328125" style="44" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" style="44" customWidth="1"/>
-    <col min="8" max="10" width="8.1328125" style="44" customWidth="1"/>
-    <col min="11" max="11" width="9.73046875" style="44" customWidth="1"/>
-    <col min="12" max="12" width="8.1328125" style="44" customWidth="1"/>
-    <col min="13" max="13" width="10" style="44" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" style="44" customWidth="1"/>
-    <col min="15" max="15" width="13.3984375" style="44" customWidth="1"/>
-    <col min="16" max="16384" width="8.86328125" style="44"/>
+    <col min="1" max="4" width="21.73046875" style="43" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="43" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="43" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="43" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="43" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="43" customWidth="1"/>
+    <col min="13" max="13" width="10" style="43" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" style="43" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="43" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" s="42"/>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
-      <c r="V11" s="43"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="43"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="43"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
+      <c r="A22" s="49"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="42"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="42"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="43"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="42"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="42"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="43"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="42"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="42"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="42"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="49" t="s">
         <v>161</v>
       </c>
-      <c r="B29" s="54">
-        <v>1</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="43"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
+      <c r="B29" s="53">
+        <v>1</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="42"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="42"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B30" s="60" t="s">
+      <c r="B30" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="43"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="42"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="42"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57" t="s">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="42"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="42"/>
+      <c r="Z32" s="42"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="42"/>
+      <c r="Q33" s="42"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="42"/>
+      <c r="Z33" s="42"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="42"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
+      <c r="W34" s="42"/>
+      <c r="X34" s="42"/>
+      <c r="Y34" s="42"/>
+      <c r="Z34" s="42"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="42"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42"/>
+      <c r="Y35" s="42"/>
+      <c r="Z35" s="42"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="43"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="43"/>
-      <c r="P40" s="43"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="43"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+      <c r="Y43" s="42"/>
+      <c r="Z43" s="42"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+      <c r="Y44" s="42"/>
+      <c r="Z44" s="42"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
-      <c r="N45" s="43"/>
-      <c r="O45" s="43"/>
-      <c r="P45" s="43"/>
-      <c r="Q45" s="43"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+      <c r="Y45" s="42"/>
+      <c r="Z45" s="42"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="43"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
-      <c r="W46" s="43"/>
-      <c r="X46" s="43"/>
-      <c r="Y46" s="43"/>
-      <c r="Z46" s="43"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
-      <c r="N47" s="43"/>
-      <c r="O47" s="43"/>
-      <c r="P47" s="43"/>
-      <c r="Q47" s="43"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
-      <c r="W47" s="43"/>
-      <c r="X47" s="43"/>
-      <c r="Y47" s="43"/>
-      <c r="Z47" s="43"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+      <c r="Y47" s="42"/>
+      <c r="Z47" s="42"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="43"/>
-      <c r="X48" s="43"/>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
+      <c r="Y48" s="42"/>
+      <c r="Z48" s="42"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
-      <c r="N49" s="43"/>
-      <c r="O49" s="43"/>
-      <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="43"/>
-      <c r="X49" s="43"/>
-      <c r="Y49" s="43"/>
-      <c r="Z49" s="43"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
+      <c r="Y49" s="42"/>
+      <c r="Z49" s="42"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
-      <c r="N50" s="43"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="43"/>
-      <c r="X50" s="43"/>
-      <c r="Y50" s="43"/>
-      <c r="Z50" s="43"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
+      <c r="Y50" s="42"/>
+      <c r="Z50" s="42"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="43"/>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="43"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="43"/>
-      <c r="Z51" s="43"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
+      <c r="Y51" s="42"/>
+      <c r="Z51" s="42"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="43"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
+      <c r="Y52" s="42"/>
+      <c r="Z52" s="42"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="43"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
+      <c r="Y53" s="42"/>
+      <c r="Z53" s="42"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43"/>
-      <c r="M54" s="43"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="43"/>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="43"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
-      <c r="W54" s="43"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="43"/>
-      <c r="Z54" s="43"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="Z54" s="42"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
-      <c r="N55" s="43"/>
-      <c r="O55" s="43"/>
-      <c r="P55" s="43"/>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
-      <c r="W55" s="43"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="43"/>
-      <c r="Z55" s="43"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
+      <c r="Y55" s="42"/>
+      <c r="Z55" s="42"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="43"/>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
-      <c r="W56" s="43"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="43"/>
-      <c r="Z56" s="43"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
+      <c r="Y56" s="42"/>
+      <c r="Z56" s="42"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
-      <c r="N57" s="43"/>
-      <c r="O57" s="43"/>
-      <c r="P57" s="43"/>
-      <c r="Q57" s="43"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
-      <c r="W57" s="43"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="43"/>
-      <c r="Z57" s="43"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
+      <c r="Y57" s="42"/>
+      <c r="Z57" s="42"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="43"/>
-      <c r="M58" s="43"/>
-      <c r="N58" s="43"/>
-      <c r="O58" s="43"/>
-      <c r="P58" s="43"/>
-      <c r="Q58" s="43"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
-      <c r="W58" s="43"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="43"/>
-      <c r="Z58" s="43"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="42"/>
+      <c r="Z58" s="42"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
-      <c r="N59" s="43"/>
-      <c r="O59" s="43"/>
-      <c r="P59" s="43"/>
-      <c r="Q59" s="43"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
-      <c r="W59" s="43"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="43"/>
-      <c r="Z59" s="43"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="42"/>
+      <c r="Z59" s="42"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
-      <c r="N60" s="43"/>
-      <c r="O60" s="43"/>
-      <c r="P60" s="43"/>
-      <c r="Q60" s="43"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
-      <c r="W60" s="43"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="43"/>
-      <c r="Z60" s="43"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="42"/>
+      <c r="Z60" s="42"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A69" s="43"/>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A70" s="43"/>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
-      <c r="U70" s="43"/>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A71" s="43"/>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A72" s="43"/>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43"/>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A74" s="43"/>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43"/>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A75" s="43"/>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43"/>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
+      <c r="A75" s="42"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A76" s="43"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
-      <c r="Q76" s="43"/>
-      <c r="R76" s="43"/>
-      <c r="S76" s="43"/>
-      <c r="T76" s="43"/>
-      <c r="U76" s="43"/>
-      <c r="V76" s="43"/>
-      <c r="W76" s="43"/>
-      <c r="X76" s="43"/>
-      <c r="Y76" s="43"/>
-      <c r="Z76" s="43"/>
+      <c r="A76" s="42"/>
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="42"/>
+      <c r="P76" s="42"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="42"/>
+      <c r="S76" s="42"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="42"/>
+      <c r="V76" s="42"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="42"/>
+      <c r="Y76" s="42"/>
+      <c r="Z76" s="42"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A77" s="43"/>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
-      <c r="U77" s="43"/>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
+      <c r="A77" s="42"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A78" s="43"/>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
-      <c r="U78" s="43"/>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A79" s="43"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
-      <c r="U79" s="43"/>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
+      <c r="A79" s="42"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A80" s="43"/>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
-      <c r="U80" s="43"/>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
+      <c r="A80" s="42"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
+      <c r="A81" s="42"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A82" s="43"/>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43"/>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="43"/>
+      <c r="A82" s="42"/>
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="42"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A83" s="43"/>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43"/>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43"/>
-      <c r="N83" s="43"/>
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
-      <c r="Q83" s="43"/>
-      <c r="R83" s="43"/>
-      <c r="S83" s="43"/>
-      <c r="T83" s="43"/>
-      <c r="U83" s="43"/>
-      <c r="V83" s="43"/>
-      <c r="W83" s="43"/>
-      <c r="X83" s="43"/>
-      <c r="Y83" s="43"/>
-      <c r="Z83" s="43"/>
+      <c r="A83" s="42"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="42"/>
+      <c r="P83" s="42"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="42"/>
+      <c r="S83" s="42"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="42"/>
+      <c r="V83" s="42"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="42"/>
+      <c r="Y83" s="42"/>
+      <c r="Z83" s="42"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A84" s="43"/>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="43"/>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="43"/>
-      <c r="S84" s="43"/>
-      <c r="T84" s="43"/>
-      <c r="U84" s="43"/>
-      <c r="V84" s="43"/>
-      <c r="W84" s="43"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="43"/>
-      <c r="Z84" s="43"/>
+      <c r="A84" s="42"/>
+      <c r="B84" s="42"/>
+      <c r="C84" s="42"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="42"/>
+      <c r="H84" s="42"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="S84" s="42"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="42"/>
+      <c r="V84" s="42"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="42"/>
+      <c r="Y84" s="42"/>
+      <c r="Z84" s="42"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A85" s="43"/>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43"/>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
-      <c r="N85" s="43"/>
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
-      <c r="Q85" s="43"/>
-      <c r="R85" s="43"/>
-      <c r="S85" s="43"/>
-      <c r="T85" s="43"/>
-      <c r="U85" s="43"/>
-      <c r="V85" s="43"/>
-      <c r="W85" s="43"/>
-      <c r="X85" s="43"/>
-      <c r="Y85" s="43"/>
-      <c r="Z85" s="43"/>
+      <c r="A85" s="42"/>
+      <c r="B85" s="42"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="42"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="42"/>
+      <c r="J85" s="42"/>
+      <c r="K85" s="42"/>
+      <c r="L85" s="42"/>
+      <c r="M85" s="42"/>
+      <c r="N85" s="42"/>
+      <c r="O85" s="42"/>
+      <c r="P85" s="42"/>
+      <c r="Q85" s="42"/>
+      <c r="R85" s="42"/>
+      <c r="S85" s="42"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="42"/>
+      <c r="V85" s="42"/>
+      <c r="W85" s="42"/>
+      <c r="X85" s="42"/>
+      <c r="Y85" s="42"/>
+      <c r="Z85" s="42"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A86" s="43"/>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
-      <c r="L86" s="43"/>
-      <c r="M86" s="43"/>
-      <c r="N86" s="43"/>
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
-      <c r="Q86" s="43"/>
-      <c r="R86" s="43"/>
-      <c r="S86" s="43"/>
-      <c r="T86" s="43"/>
-      <c r="U86" s="43"/>
-      <c r="V86" s="43"/>
-      <c r="W86" s="43"/>
-      <c r="X86" s="43"/>
-      <c r="Y86" s="43"/>
-      <c r="Z86" s="43"/>
+      <c r="A86" s="42"/>
+      <c r="B86" s="42"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="42"/>
+      <c r="I86" s="42"/>
+      <c r="J86" s="42"/>
+      <c r="K86" s="42"/>
+      <c r="L86" s="42"/>
+      <c r="M86" s="42"/>
+      <c r="N86" s="42"/>
+      <c r="O86" s="42"/>
+      <c r="P86" s="42"/>
+      <c r="Q86" s="42"/>
+      <c r="R86" s="42"/>
+      <c r="S86" s="42"/>
+      <c r="T86" s="42"/>
+      <c r="U86" s="42"/>
+      <c r="V86" s="42"/>
+      <c r="W86" s="42"/>
+      <c r="X86" s="42"/>
+      <c r="Y86" s="42"/>
+      <c r="Z86" s="42"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A87" s="43"/>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
-      <c r="L87" s="43"/>
-      <c r="M87" s="43"/>
-      <c r="N87" s="43"/>
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
-      <c r="Q87" s="43"/>
-      <c r="R87" s="43"/>
-      <c r="S87" s="43"/>
-      <c r="T87" s="43"/>
-      <c r="U87" s="43"/>
-      <c r="V87" s="43"/>
-      <c r="W87" s="43"/>
-      <c r="X87" s="43"/>
-      <c r="Y87" s="43"/>
-      <c r="Z87" s="43"/>
+      <c r="A87" s="42"/>
+      <c r="B87" s="42"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42"/>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42"/>
+      <c r="M87" s="42"/>
+      <c r="N87" s="42"/>
+      <c r="O87" s="42"/>
+      <c r="P87" s="42"/>
+      <c r="Q87" s="42"/>
+      <c r="R87" s="42"/>
+      <c r="S87" s="42"/>
+      <c r="T87" s="42"/>
+      <c r="U87" s="42"/>
+      <c r="V87" s="42"/>
+      <c r="W87" s="42"/>
+      <c r="X87" s="42"/>
+      <c r="Y87" s="42"/>
+      <c r="Z87" s="42"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A88" s="43"/>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
-      <c r="L88" s="43"/>
-      <c r="M88" s="43"/>
-      <c r="N88" s="43"/>
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
-      <c r="Q88" s="43"/>
-      <c r="R88" s="43"/>
-      <c r="S88" s="43"/>
-      <c r="T88" s="43"/>
-      <c r="U88" s="43"/>
-      <c r="V88" s="43"/>
-      <c r="W88" s="43"/>
-      <c r="X88" s="43"/>
-      <c r="Y88" s="43"/>
-      <c r="Z88" s="43"/>
+      <c r="A88" s="42"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="42"/>
+      <c r="I88" s="42"/>
+      <c r="J88" s="42"/>
+      <c r="K88" s="42"/>
+      <c r="L88" s="42"/>
+      <c r="M88" s="42"/>
+      <c r="N88" s="42"/>
+      <c r="O88" s="42"/>
+      <c r="P88" s="42"/>
+      <c r="Q88" s="42"/>
+      <c r="R88" s="42"/>
+      <c r="S88" s="42"/>
+      <c r="T88" s="42"/>
+      <c r="U88" s="42"/>
+      <c r="V88" s="42"/>
+      <c r="W88" s="42"/>
+      <c r="X88" s="42"/>
+      <c r="Y88" s="42"/>
+      <c r="Z88" s="42"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
-      <c r="L89" s="43"/>
-      <c r="M89" s="43"/>
-      <c r="N89" s="43"/>
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
-      <c r="Q89" s="43"/>
-      <c r="R89" s="43"/>
-      <c r="S89" s="43"/>
-      <c r="T89" s="43"/>
-      <c r="U89" s="43"/>
-      <c r="V89" s="43"/>
-      <c r="W89" s="43"/>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="43"/>
-      <c r="Z89" s="43"/>
+      <c r="A89" s="42"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="42"/>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="42"/>
+      <c r="H89" s="42"/>
+      <c r="I89" s="42"/>
+      <c r="J89" s="42"/>
+      <c r="K89" s="42"/>
+      <c r="L89" s="42"/>
+      <c r="M89" s="42"/>
+      <c r="N89" s="42"/>
+      <c r="O89" s="42"/>
+      <c r="P89" s="42"/>
+      <c r="Q89" s="42"/>
+      <c r="R89" s="42"/>
+      <c r="S89" s="42"/>
+      <c r="T89" s="42"/>
+      <c r="U89" s="42"/>
+      <c r="V89" s="42"/>
+      <c r="W89" s="42"/>
+      <c r="X89" s="42"/>
+      <c r="Y89" s="42"/>
+      <c r="Z89" s="42"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A90" s="43"/>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
-      <c r="L90" s="43"/>
-      <c r="M90" s="43"/>
-      <c r="N90" s="43"/>
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
-      <c r="Q90" s="43"/>
-      <c r="R90" s="43"/>
-      <c r="S90" s="43"/>
-      <c r="T90" s="43"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="43"/>
-      <c r="W90" s="43"/>
-      <c r="X90" s="43"/>
-      <c r="Y90" s="43"/>
-      <c r="Z90" s="43"/>
+      <c r="A90" s="42"/>
+      <c r="B90" s="42"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="42"/>
+      <c r="Q90" s="42"/>
+      <c r="R90" s="42"/>
+      <c r="S90" s="42"/>
+      <c r="T90" s="42"/>
+      <c r="U90" s="42"/>
+      <c r="V90" s="42"/>
+      <c r="W90" s="42"/>
+      <c r="X90" s="42"/>
+      <c r="Y90" s="42"/>
+      <c r="Z90" s="42"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A91" s="43"/>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
-      <c r="L91" s="43"/>
-      <c r="M91" s="43"/>
-      <c r="N91" s="43"/>
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
-      <c r="Q91" s="43"/>
-      <c r="R91" s="43"/>
-      <c r="S91" s="43"/>
-      <c r="T91" s="43"/>
-      <c r="U91" s="43"/>
-      <c r="V91" s="43"/>
-      <c r="W91" s="43"/>
-      <c r="X91" s="43"/>
-      <c r="Y91" s="43"/>
-      <c r="Z91" s="43"/>
+      <c r="A91" s="42"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="42"/>
+      <c r="I91" s="42"/>
+      <c r="J91" s="42"/>
+      <c r="K91" s="42"/>
+      <c r="L91" s="42"/>
+      <c r="M91" s="42"/>
+      <c r="N91" s="42"/>
+      <c r="O91" s="42"/>
+      <c r="P91" s="42"/>
+      <c r="Q91" s="42"/>
+      <c r="R91" s="42"/>
+      <c r="S91" s="42"/>
+      <c r="T91" s="42"/>
+      <c r="U91" s="42"/>
+      <c r="V91" s="42"/>
+      <c r="W91" s="42"/>
+      <c r="X91" s="42"/>
+      <c r="Y91" s="42"/>
+      <c r="Z91" s="42"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A92" s="43"/>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
-      <c r="M92" s="43"/>
-      <c r="N92" s="43"/>
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
-      <c r="Q92" s="43"/>
-      <c r="R92" s="43"/>
-      <c r="S92" s="43"/>
-      <c r="T92" s="43"/>
-      <c r="U92" s="43"/>
-      <c r="V92" s="43"/>
-      <c r="W92" s="43"/>
-      <c r="X92" s="43"/>
-      <c r="Y92" s="43"/>
-      <c r="Z92" s="43"/>
+      <c r="A92" s="42"/>
+      <c r="B92" s="42"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="42"/>
+      <c r="I92" s="42"/>
+      <c r="J92" s="42"/>
+      <c r="K92" s="42"/>
+      <c r="L92" s="42"/>
+      <c r="M92" s="42"/>
+      <c r="N92" s="42"/>
+      <c r="O92" s="42"/>
+      <c r="P92" s="42"/>
+      <c r="Q92" s="42"/>
+      <c r="R92" s="42"/>
+      <c r="S92" s="42"/>
+      <c r="T92" s="42"/>
+      <c r="U92" s="42"/>
+      <c r="V92" s="42"/>
+      <c r="W92" s="42"/>
+      <c r="X92" s="42"/>
+      <c r="Y92" s="42"/>
+      <c r="Z92" s="42"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A93" s="43"/>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
-      <c r="L93" s="43"/>
-      <c r="M93" s="43"/>
-      <c r="N93" s="43"/>
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
-      <c r="Q93" s="43"/>
-      <c r="R93" s="43"/>
-      <c r="S93" s="43"/>
-      <c r="T93" s="43"/>
-      <c r="U93" s="43"/>
-      <c r="V93" s="43"/>
-      <c r="W93" s="43"/>
-      <c r="X93" s="43"/>
-      <c r="Y93" s="43"/>
-      <c r="Z93" s="43"/>
+      <c r="A93" s="42"/>
+      <c r="B93" s="42"/>
+      <c r="C93" s="42"/>
+      <c r="D93" s="42"/>
+      <c r="E93" s="42"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="42"/>
+      <c r="H93" s="42"/>
+      <c r="I93" s="42"/>
+      <c r="J93" s="42"/>
+      <c r="K93" s="42"/>
+      <c r="L93" s="42"/>
+      <c r="M93" s="42"/>
+      <c r="N93" s="42"/>
+      <c r="O93" s="42"/>
+      <c r="P93" s="42"/>
+      <c r="Q93" s="42"/>
+      <c r="R93" s="42"/>
+      <c r="S93" s="42"/>
+      <c r="T93" s="42"/>
+      <c r="U93" s="42"/>
+      <c r="V93" s="42"/>
+      <c r="W93" s="42"/>
+      <c r="X93" s="42"/>
+      <c r="Y93" s="42"/>
+      <c r="Z93" s="42"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A94" s="43"/>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
-      <c r="L94" s="43"/>
-      <c r="M94" s="43"/>
-      <c r="N94" s="43"/>
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
-      <c r="Q94" s="43"/>
-      <c r="R94" s="43"/>
-      <c r="S94" s="43"/>
-      <c r="T94" s="43"/>
-      <c r="U94" s="43"/>
-      <c r="V94" s="43"/>
-      <c r="W94" s="43"/>
-      <c r="X94" s="43"/>
-      <c r="Y94" s="43"/>
-      <c r="Z94" s="43"/>
+      <c r="A94" s="42"/>
+      <c r="B94" s="42"/>
+      <c r="C94" s="42"/>
+      <c r="D94" s="42"/>
+      <c r="E94" s="42"/>
+      <c r="F94" s="42"/>
+      <c r="G94" s="42"/>
+      <c r="H94" s="42"/>
+      <c r="I94" s="42"/>
+      <c r="J94" s="42"/>
+      <c r="K94" s="42"/>
+      <c r="L94" s="42"/>
+      <c r="M94" s="42"/>
+      <c r="N94" s="42"/>
+      <c r="O94" s="42"/>
+      <c r="P94" s="42"/>
+      <c r="Q94" s="42"/>
+      <c r="R94" s="42"/>
+      <c r="S94" s="42"/>
+      <c r="T94" s="42"/>
+      <c r="U94" s="42"/>
+      <c r="V94" s="42"/>
+      <c r="W94" s="42"/>
+      <c r="X94" s="42"/>
+      <c r="Y94" s="42"/>
+      <c r="Z94" s="42"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A95" s="43"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="43"/>
-      <c r="M95" s="43"/>
-      <c r="N95" s="43"/>
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
-      <c r="Q95" s="43"/>
-      <c r="R95" s="43"/>
-      <c r="S95" s="43"/>
-      <c r="T95" s="43"/>
-      <c r="U95" s="43"/>
-      <c r="V95" s="43"/>
-      <c r="W95" s="43"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="43"/>
-      <c r="Z95" s="43"/>
+      <c r="A95" s="42"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="42"/>
+      <c r="E95" s="42"/>
+      <c r="F95" s="42"/>
+      <c r="G95" s="42"/>
+      <c r="H95" s="42"/>
+      <c r="I95" s="42"/>
+      <c r="J95" s="42"/>
+      <c r="K95" s="42"/>
+      <c r="L95" s="42"/>
+      <c r="M95" s="42"/>
+      <c r="N95" s="42"/>
+      <c r="O95" s="42"/>
+      <c r="P95" s="42"/>
+      <c r="Q95" s="42"/>
+      <c r="R95" s="42"/>
+      <c r="S95" s="42"/>
+      <c r="T95" s="42"/>
+      <c r="U95" s="42"/>
+      <c r="V95" s="42"/>
+      <c r="W95" s="42"/>
+      <c r="X95" s="42"/>
+      <c r="Y95" s="42"/>
+      <c r="Z95" s="42"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A96" s="43"/>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
-      <c r="L96" s="43"/>
-      <c r="M96" s="43"/>
-      <c r="N96" s="43"/>
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
-      <c r="Q96" s="43"/>
-      <c r="R96" s="43"/>
-      <c r="S96" s="43"/>
-      <c r="T96" s="43"/>
-      <c r="U96" s="43"/>
-      <c r="V96" s="43"/>
-      <c r="W96" s="43"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="43"/>
-      <c r="Z96" s="43"/>
+      <c r="A96" s="42"/>
+      <c r="B96" s="42"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="42"/>
+      <c r="I96" s="42"/>
+      <c r="J96" s="42"/>
+      <c r="K96" s="42"/>
+      <c r="L96" s="42"/>
+      <c r="M96" s="42"/>
+      <c r="N96" s="42"/>
+      <c r="O96" s="42"/>
+      <c r="P96" s="42"/>
+      <c r="Q96" s="42"/>
+      <c r="R96" s="42"/>
+      <c r="S96" s="42"/>
+      <c r="T96" s="42"/>
+      <c r="U96" s="42"/>
+      <c r="V96" s="42"/>
+      <c r="W96" s="42"/>
+      <c r="X96" s="42"/>
+      <c r="Y96" s="42"/>
+      <c r="Z96" s="42"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="43"/>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="43"/>
-      <c r="S97" s="43"/>
-      <c r="T97" s="43"/>
-      <c r="U97" s="43"/>
-      <c r="V97" s="43"/>
-      <c r="W97" s="43"/>
-      <c r="X97" s="43"/>
-      <c r="Y97" s="43"/>
-      <c r="Z97" s="43"/>
+      <c r="A97" s="42"/>
+      <c r="B97" s="42"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="42"/>
+      <c r="I97" s="42"/>
+      <c r="J97" s="42"/>
+      <c r="K97" s="42"/>
+      <c r="L97" s="42"/>
+      <c r="M97" s="42"/>
+      <c r="N97" s="42"/>
+      <c r="O97" s="42"/>
+      <c r="P97" s="42"/>
+      <c r="Q97" s="42"/>
+      <c r="R97" s="42"/>
+      <c r="S97" s="42"/>
+      <c r="T97" s="42"/>
+      <c r="U97" s="42"/>
+      <c r="V97" s="42"/>
+      <c r="W97" s="42"/>
+      <c r="X97" s="42"/>
+      <c r="Y97" s="42"/>
+      <c r="Z97" s="42"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A98" s="43"/>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
-      <c r="L98" s="43"/>
-      <c r="M98" s="43"/>
-      <c r="N98" s="43"/>
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
-      <c r="Q98" s="43"/>
-      <c r="R98" s="43"/>
-      <c r="S98" s="43"/>
-      <c r="T98" s="43"/>
-      <c r="U98" s="43"/>
-      <c r="V98" s="43"/>
-      <c r="W98" s="43"/>
-      <c r="X98" s="43"/>
-      <c r="Y98" s="43"/>
-      <c r="Z98" s="43"/>
+      <c r="A98" s="42"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="42"/>
+      <c r="I98" s="42"/>
+      <c r="J98" s="42"/>
+      <c r="K98" s="42"/>
+      <c r="L98" s="42"/>
+      <c r="M98" s="42"/>
+      <c r="N98" s="42"/>
+      <c r="O98" s="42"/>
+      <c r="P98" s="42"/>
+      <c r="Q98" s="42"/>
+      <c r="R98" s="42"/>
+      <c r="S98" s="42"/>
+      <c r="T98" s="42"/>
+      <c r="U98" s="42"/>
+      <c r="V98" s="42"/>
+      <c r="W98" s="42"/>
+      <c r="X98" s="42"/>
+      <c r="Y98" s="42"/>
+      <c r="Z98" s="42"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A99" s="43"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
-      <c r="L99" s="43"/>
-      <c r="M99" s="43"/>
-      <c r="N99" s="43"/>
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
-      <c r="Q99" s="43"/>
-      <c r="R99" s="43"/>
-      <c r="S99" s="43"/>
-      <c r="T99" s="43"/>
-      <c r="U99" s="43"/>
-      <c r="V99" s="43"/>
-      <c r="W99" s="43"/>
-      <c r="X99" s="43"/>
-      <c r="Y99" s="43"/>
-      <c r="Z99" s="43"/>
+      <c r="A99" s="42"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="42"/>
+      <c r="I99" s="42"/>
+      <c r="J99" s="42"/>
+      <c r="K99" s="42"/>
+      <c r="L99" s="42"/>
+      <c r="M99" s="42"/>
+      <c r="N99" s="42"/>
+      <c r="O99" s="42"/>
+      <c r="P99" s="42"/>
+      <c r="Q99" s="42"/>
+      <c r="R99" s="42"/>
+      <c r="S99" s="42"/>
+      <c r="T99" s="42"/>
+      <c r="U99" s="42"/>
+      <c r="V99" s="42"/>
+      <c r="W99" s="42"/>
+      <c r="X99" s="42"/>
+      <c r="Y99" s="42"/>
+      <c r="Z99" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -7106,7 +7103,7 @@
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -8434,22 +8431,22 @@
       <c r="D12" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="40" t="s">
         <v>146</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="41" t="s">
+      <c r="I12" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="41" t="s">
+      <c r="J12" s="40" t="s">
         <v>153</v>
       </c>
     </row>
@@ -9539,7 +9536,7 @@
   <dimension ref="B1:G34"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -9961,6 +9958,23 @@
         <v>0.9783730634328176</v>
       </c>
     </row>
+    <row r="27" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="C27" s="7" t="str">
+        <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B24,4))</f>
+        <v>MEUR2021</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G27" s="26">
+        <f>CPI!$D$21/CPI!D24</f>
+        <v>0.95079986728164989</v>
+      </c>
+    </row>
     <row r="31" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
     </row>
@@ -9983,10 +9997,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B2:O24"/>
+  <dimension ref="B2:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10321,6 +10335,12 @@
         <v>MEUR2020</v>
       </c>
     </row>
+    <row r="25" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
+      <c r="B25" s="7" t="str">
+        <f>Constants!C27</f>
+        <v>MEUR2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10331,10 +10351,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="B2:D25"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -10533,7 +10553,7 @@
       <c r="B18" s="32">
         <v>2015</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="39">
         <v>1E-3</v>
       </c>
       <c r="D18" s="35">
@@ -10545,10 +10565,10 @@
       <c r="B19" s="37">
         <v>2016</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="34">
         <v>2E-3</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="38">
         <f t="shared" si="0"/>
         <v>134.385411970333</v>
       </c>
@@ -10557,10 +10577,10 @@
       <c r="B20" s="37">
         <v>2017</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="34">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="38">
         <f t="shared" si="0"/>
         <v>136.66996397382866</v>
       </c>
@@ -10569,10 +10589,10 @@
       <c r="B21" s="37">
         <v>2018</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="34">
         <v>1.9E-2</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <f t="shared" si="0"/>
         <v>139.26669328933141</v>
       </c>
@@ -10581,10 +10601,10 @@
       <c r="B22" s="37">
         <v>2019</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="34">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="38">
         <f t="shared" si="0"/>
         <v>141.35569368867138</v>
       </c>
@@ -10593,16 +10613,28 @@
       <c r="B23" s="37">
         <v>2020</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="38">
         <f t="shared" ref="D23" si="1">D22+D22*C23</f>
         <v>142.34518354449207</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
-      <c r="B25" s="36" t="s">
+    <row r="24" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="B24" s="37">
+        <v>2021</v>
+      </c>
+      <c r="C24" s="39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" ref="D24" si="2">D23+D23*C24</f>
+        <v>146.47319386728233</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="B26" s="36" t="s">
         <v>40</v>
       </c>
     </row>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3CAD9-D5E5-4A4E-9A3F-F84A187D76A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325E3F65-66D8-4419-B029-9063DDD5C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="Defaults" sheetId="26" r:id="rId8"/>
     <sheet name="CPI" sheetId="23" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
@@ -117,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="185">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -687,6 +684,9 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>1.0.0-s.1</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1168,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1186,6 @@
     <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,14 +1198,20 @@
     <xf numFmtId="164" fontId="25" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1260,7 +1260,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FF9F3C-3DFB-4509-993B-E9E9C13F720F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1304,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575FB787-6126-4D5C-91B4-03C130270599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E48AFD-6D7C-4DA8-84A9-BB1A14AF3B2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1403,7 +1403,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D254F58-28BF-4B90-AAC8-5B68F5DF7492}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1453,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4ADD4D2-7CD7-4DD4-B0E9-3DBFA1855C7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3124C59-B220-4E5A-BF83-31FC5CD19C08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1572,7 +1572,7 @@
               <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s8193"/>
             </a:ext>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001200000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001200000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
                   <a14:compatExt spid="_x0000_s8193"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1685,7 +1685,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1870,7 +1870,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2049,7 +2049,7 @@
         <xdr:cNvPr id="2050" name="Text Box 1026" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2108,7 @@
         <xdr:cNvPr id="2052" name="Text Box 1028" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2167,7 @@
         <xdr:cNvPr id="2053" name="Text Box 1029" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2226,7 +2226,7 @@
         <xdr:cNvPr id="2055" name="Text Box 1031" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2285,7 +2285,7 @@
         <xdr:cNvPr id="2056" name="Text Box 1032" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2344,7 @@
         <xdr:cNvPr id="2057" name="Text Box 1033" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2403,7 @@
         <xdr:cNvPr id="2058" name="Text Box 1034" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2462,7 @@
         <xdr:cNvPr id="2059" name="Text Box 1035" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2526,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2923,7 +2923,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3100,7 +3100,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3322,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,7 +3774,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,35 +3941,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-      <sheetName val="Regions"/>
-      <sheetName val="Region-Time Slices"/>
-      <sheetName val="TimePeriods"/>
-      <sheetName val="Import Settings"/>
-      <sheetName val="Interpol_Extrapol_Defaults"/>
-      <sheetName val="Constants"/>
-      <sheetName val="Defaults"/>
-      <sheetName val="CPI"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4325,23 +4296,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3379E1F-C583-48F0-B411-B9FA6A220D7D}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="45" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="45" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="45" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="45" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="45" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="45" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="45" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="45" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="45" customWidth="1"/>
     <col min="13" max="13" width="10" style="45" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="45" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="45"/>
+    <col min="14" max="14" width="11.3984375" style="45" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="45" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -4369,7 +4342,7 @@
       <c r="Y1" s="44"/>
       <c r="Z1" s="44"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="43"/>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -4397,7 +4370,7 @@
       <c r="Y2" s="44"/>
       <c r="Z2" s="44"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="43"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -4425,7 +4398,7 @@
       <c r="Y3" s="44"/>
       <c r="Z3" s="44"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="43"/>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -4453,7 +4426,7 @@
       <c r="Y4" s="44"/>
       <c r="Z4" s="44"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -4481,7 +4454,7 @@
       <c r="Y5" s="44"/>
       <c r="Z5" s="44"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="43"/>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -4509,7 +4482,7 @@
       <c r="Y6" s="44"/>
       <c r="Z6" s="44"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="43"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -4537,7 +4510,7 @@
       <c r="Y7" s="44"/>
       <c r="Z7" s="44"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="43"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -4565,7 +4538,7 @@
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -4593,7 +4566,7 @@
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="43"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -4621,7 +4594,7 @@
       <c r="Y10" s="44"/>
       <c r="Z10" s="44"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="43"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
@@ -4649,7 +4622,7 @@
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="43"/>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
@@ -4677,7 +4650,7 @@
       <c r="Y12" s="44"/>
       <c r="Z12" s="44"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="43"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
@@ -4705,7 +4678,7 @@
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
@@ -4733,7 +4706,7 @@
       <c r="Y14" s="44"/>
       <c r="Z14" s="44"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="43"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
@@ -4761,21 +4734,21 @@
       <c r="Y15" s="44"/>
       <c r="Z15" s="44"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
       <c r="O16" s="44"/>
@@ -4791,11 +4764,11 @@
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="44"/>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
@@ -4819,19 +4792,19 @@
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
       <c r="M18" s="44"/>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
@@ -4847,23 +4820,23 @@
       <c r="Y18" s="44"/>
       <c r="Z18" s="44"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
       <c r="M19" s="44"/>
       <c r="N19" s="44"/>
       <c r="O19" s="44"/>
@@ -4879,23 +4852,23 @@
       <c r="Y19" s="44"/>
       <c r="Z19" s="44"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44"/>
@@ -4911,23 +4884,23 @@
       <c r="Y20" s="44"/>
       <c r="Z20" s="44"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
       <c r="M21" s="44"/>
       <c r="N21" s="44"/>
       <c r="O21" s="44"/>
@@ -4943,19 +4916,19 @@
       <c r="Y21" s="44"/>
       <c r="Z21" s="44"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
       <c r="M22" s="44"/>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
@@ -4971,15 +4944,15 @@
       <c r="Y22" s="44"/>
       <c r="Z22" s="44"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52" t="s">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
@@ -5003,11 +4976,11 @@
       <c r="Y23" s="44"/>
       <c r="Z23" s="44"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="52"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="51"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="44"/>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
@@ -5031,11 +5004,11 @@
       <c r="Y24" s="44"/>
       <c r="Z24" s="44"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
@@ -5059,15 +5032,15 @@
       <c r="Y25" s="44"/>
       <c r="Z25" s="44"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
@@ -5091,11 +5064,11 @@
       <c r="Y26" s="44"/>
       <c r="Z26" s="44"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="52"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="51"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
@@ -5119,11 +5092,11 @@
       <c r="Y27" s="44"/>
       <c r="Z27" s="44"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="51"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
@@ -5147,15 +5120,15 @@
       <c r="Y28" s="44"/>
       <c r="Z28" s="44"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="B29" s="57">
-        <v>1</v>
-      </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="B29" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="44"/>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
@@ -5179,17 +5152,17 @@
       <c r="Y29" s="44"/>
       <c r="Z29" s="44"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52" t="s">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
@@ -5211,17 +5184,17 @@
       <c r="Y30" s="44"/>
       <c r="Z30" s="44"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52" t="s">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="44"/>
@@ -5243,13 +5216,13 @@
       <c r="Y31" s="44"/>
       <c r="Z31" s="44"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61" t="s">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="57"/>
+      <c r="B32" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="44"/>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
@@ -5273,7 +5246,7 @@
       <c r="Y32" s="44"/>
       <c r="Z32" s="44"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -5301,7 +5274,7 @@
       <c r="Y33" s="44"/>
       <c r="Z33" s="44"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -5329,7 +5302,7 @@
       <c r="Y34" s="44"/>
       <c r="Z34" s="44"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -5357,7 +5330,7 @@
       <c r="Y35" s="44"/>
       <c r="Z35" s="44"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -5385,7 +5358,7 @@
       <c r="Y36" s="44"/>
       <c r="Z36" s="44"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -5413,7 +5386,7 @@
       <c r="Y37" s="44"/>
       <c r="Z37" s="44"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -5441,7 +5414,7 @@
       <c r="Y38" s="44"/>
       <c r="Z38" s="44"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -5469,7 +5442,7 @@
       <c r="Y39" s="44"/>
       <c r="Z39" s="44"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -5497,7 +5470,7 @@
       <c r="Y40" s="44"/>
       <c r="Z40" s="44"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -5525,7 +5498,7 @@
       <c r="Y41" s="44"/>
       <c r="Z41" s="44"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -5553,7 +5526,7 @@
       <c r="Y42" s="44"/>
       <c r="Z42" s="44"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="44"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -5581,7 +5554,7 @@
       <c r="Y43" s="44"/>
       <c r="Z43" s="44"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="44"/>
       <c r="B44" s="44"/>
       <c r="C44" s="44"/>
@@ -5609,7 +5582,7 @@
       <c r="Y44" s="44"/>
       <c r="Z44" s="44"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="44"/>
       <c r="B45" s="44"/>
       <c r="C45" s="44"/>
@@ -5637,7 +5610,7 @@
       <c r="Y45" s="44"/>
       <c r="Z45" s="44"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="44"/>
       <c r="B46" s="44"/>
       <c r="C46" s="44"/>
@@ -5665,7 +5638,7 @@
       <c r="Y46" s="44"/>
       <c r="Z46" s="44"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="44"/>
       <c r="B47" s="44"/>
       <c r="C47" s="44"/>
@@ -5693,7 +5666,7 @@
       <c r="Y47" s="44"/>
       <c r="Z47" s="44"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="44"/>
       <c r="B48" s="44"/>
       <c r="C48" s="44"/>
@@ -5721,7 +5694,7 @@
       <c r="Y48" s="44"/>
       <c r="Z48" s="44"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="44"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
@@ -5749,7 +5722,7 @@
       <c r="Y49" s="44"/>
       <c r="Z49" s="44"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="44"/>
       <c r="B50" s="44"/>
       <c r="C50" s="44"/>
@@ -5777,7 +5750,7 @@
       <c r="Y50" s="44"/>
       <c r="Z50" s="44"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="44"/>
       <c r="B51" s="44"/>
       <c r="C51" s="44"/>
@@ -5805,7 +5778,7 @@
       <c r="Y51" s="44"/>
       <c r="Z51" s="44"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="44"/>
       <c r="B52" s="44"/>
       <c r="C52" s="44"/>
@@ -5833,7 +5806,7 @@
       <c r="Y52" s="44"/>
       <c r="Z52" s="44"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -5861,7 +5834,7 @@
       <c r="Y53" s="44"/>
       <c r="Z53" s="44"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -5889,7 +5862,7 @@
       <c r="Y54" s="44"/>
       <c r="Z54" s="44"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -5917,7 +5890,7 @@
       <c r="Y55" s="44"/>
       <c r="Z55" s="44"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -5945,7 +5918,7 @@
       <c r="Y56" s="44"/>
       <c r="Z56" s="44"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -5973,7 +5946,7 @@
       <c r="Y57" s="44"/>
       <c r="Z57" s="44"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -6001,7 +5974,7 @@
       <c r="Y58" s="44"/>
       <c r="Z58" s="44"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -6029,7 +6002,7 @@
       <c r="Y59" s="44"/>
       <c r="Z59" s="44"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -6057,7 +6030,7 @@
       <c r="Y60" s="44"/>
       <c r="Z60" s="44"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -6085,7 +6058,7 @@
       <c r="Y61" s="44"/>
       <c r="Z61" s="44"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -6113,7 +6086,7 @@
       <c r="Y62" s="44"/>
       <c r="Z62" s="44"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -6141,7 +6114,7 @@
       <c r="Y63" s="44"/>
       <c r="Z63" s="44"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -6169,7 +6142,7 @@
       <c r="Y64" s="44"/>
       <c r="Z64" s="44"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -6197,7 +6170,7 @@
       <c r="Y65" s="44"/>
       <c r="Z65" s="44"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -6225,7 +6198,7 @@
       <c r="Y66" s="44"/>
       <c r="Z66" s="44"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -6253,7 +6226,7 @@
       <c r="Y67" s="44"/>
       <c r="Z67" s="44"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -6281,7 +6254,7 @@
       <c r="Y68" s="44"/>
       <c r="Z68" s="44"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -6309,7 +6282,7 @@
       <c r="Y69" s="44"/>
       <c r="Z69" s="44"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -6337,7 +6310,7 @@
       <c r="Y70" s="44"/>
       <c r="Z70" s="44"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -6365,7 +6338,7 @@
       <c r="Y71" s="44"/>
       <c r="Z71" s="44"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -6393,7 +6366,7 @@
       <c r="Y72" s="44"/>
       <c r="Z72" s="44"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -6421,7 +6394,7 @@
       <c r="Y73" s="44"/>
       <c r="Z73" s="44"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -6449,7 +6422,7 @@
       <c r="Y74" s="44"/>
       <c r="Z74" s="44"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -6477,7 +6450,7 @@
       <c r="Y75" s="44"/>
       <c r="Z75" s="44"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -6505,7 +6478,7 @@
       <c r="Y76" s="44"/>
       <c r="Z76" s="44"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -6533,7 +6506,7 @@
       <c r="Y77" s="44"/>
       <c r="Z77" s="44"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -6561,7 +6534,7 @@
       <c r="Y78" s="44"/>
       <c r="Z78" s="44"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -6589,7 +6562,7 @@
       <c r="Y79" s="44"/>
       <c r="Z79" s="44"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -6617,7 +6590,7 @@
       <c r="Y80" s="44"/>
       <c r="Z80" s="44"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -6645,7 +6618,7 @@
       <c r="Y81" s="44"/>
       <c r="Z81" s="44"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -6673,7 +6646,7 @@
       <c r="Y82" s="44"/>
       <c r="Z82" s="44"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -6701,7 +6674,7 @@
       <c r="Y83" s="44"/>
       <c r="Z83" s="44"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -6729,7 +6702,7 @@
       <c r="Y84" s="44"/>
       <c r="Z84" s="44"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -6757,7 +6730,7 @@
       <c r="Y85" s="44"/>
       <c r="Z85" s="44"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -6785,7 +6758,7 @@
       <c r="Y86" s="44"/>
       <c r="Z86" s="44"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -6813,7 +6786,7 @@
       <c r="Y87" s="44"/>
       <c r="Z87" s="44"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -6841,7 +6814,7 @@
       <c r="Y88" s="44"/>
       <c r="Z88" s="44"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -6869,7 +6842,7 @@
       <c r="Y89" s="44"/>
       <c r="Z89" s="44"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -6897,7 +6870,7 @@
       <c r="Y90" s="44"/>
       <c r="Z90" s="44"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -6925,7 +6898,7 @@
       <c r="Y91" s="44"/>
       <c r="Z91" s="44"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -6953,7 +6926,7 @@
       <c r="Y92" s="44"/>
       <c r="Z92" s="44"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -6981,7 +6954,7 @@
       <c r="Y93" s="44"/>
       <c r="Z93" s="44"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -7009,7 +6982,7 @@
       <c r="Y94" s="44"/>
       <c r="Z94" s="44"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -7037,7 +7010,7 @@
       <c r="Y95" s="44"/>
       <c r="Z95" s="44"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -7065,7 +7038,7 @@
       <c r="Y96" s="44"/>
       <c r="Z96" s="44"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -7093,7 +7066,7 @@
       <c r="Y97" s="44"/>
       <c r="Z97" s="44"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -7121,7 +7094,7 @@
       <c r="Y98" s="44"/>
       <c r="Z98" s="44"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -7177,38 +7150,38 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.73046875" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" customWidth="1"/>
+    <col min="10" max="11" width="5.73046875" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.73046875" customWidth="1"/>
+    <col min="15" max="15" width="6.59765625" customWidth="1"/>
+    <col min="16" max="16" width="7.1328125" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.86328125" customWidth="1"/>
+    <col min="20" max="20" width="5.59765625" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" customWidth="1"/>
+    <col min="22" max="22" width="6.73046875" customWidth="1"/>
     <col min="23" max="23" width="5" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" customWidth="1"/>
+    <col min="25" max="25" width="6.73046875" customWidth="1"/>
     <col min="26" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" customWidth="1"/>
+    <col min="29" max="29" width="5.73046875" customWidth="1"/>
+    <col min="30" max="30" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="str">
         <f t="array" ref="C3">IF(INDEX(C5:C7,$A$4)&lt;&gt;0,INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -7322,13 +7295,13 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>66</v>
       </c>
@@ -7443,7 +7416,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>68</v>
       </c>
@@ -7479,7 +7452,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -7593,7 +7566,7 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -7601,7 +7574,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7609,7 +7582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>74</v>
       </c>
@@ -7617,7 +7590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -7625,7 +7598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>78</v>
       </c>
@@ -7633,7 +7606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>80</v>
       </c>
@@ -7641,7 +7614,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>82</v>
       </c>
@@ -7649,7 +7622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>84</v>
       </c>
@@ -7657,7 +7630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>86</v>
       </c>
@@ -7665,7 +7638,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>88</v>
       </c>
@@ -7673,7 +7646,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
@@ -7681,7 +7654,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>92</v>
       </c>
@@ -7689,7 +7662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>94</v>
       </c>
@@ -7697,7 +7670,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>96</v>
       </c>
@@ -7705,7 +7678,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>98</v>
       </c>
@@ -7713,7 +7686,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -7721,7 +7694,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>102</v>
       </c>
@@ -7729,7 +7702,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
@@ -7737,7 +7710,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -7745,7 +7718,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>108</v>
       </c>
@@ -7753,7 +7726,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>110</v>
       </c>
@@ -7761,7 +7734,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>112</v>
       </c>
@@ -7769,7 +7742,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>114</v>
       </c>
@@ -7777,7 +7750,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>116</v>
       </c>
@@ -7785,7 +7758,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
@@ -7793,7 +7766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
@@ -7801,7 +7774,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>122</v>
       </c>
@@ -7809,7 +7782,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>124</v>
       </c>
@@ -7858,16 +7831,16 @@
       <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1328125" customWidth="1"/>
+    <col min="4" max="4" width="2.1328125" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="B3" s="11" t="s">
         <v>6</v>
@@ -7878,7 +7851,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
@@ -7914,7 +7887,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>37</v>
@@ -7951,7 +7924,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="str">
@@ -7986,7 +7959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="str">
@@ -8019,7 +7992,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="str">
@@ -8052,7 +8025,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="str">
@@ -8081,7 +8054,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="str">
@@ -8107,7 +8080,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="str">
@@ -8134,7 +8107,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -8155,7 +8128,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="str">
@@ -8176,7 +8149,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="str">
@@ -8197,7 +8170,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="str">
@@ -8218,7 +8191,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="str">
@@ -8239,7 +8212,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="str">
@@ -8254,7 +8227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="str">
@@ -8268,7 +8241,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="str">
@@ -8282,7 +8255,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="C20" s="8" t="str">
         <f>Regions!R3</f>
@@ -8295,7 +8268,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="C21" s="8" t="str">
         <f>Regions!S3</f>
@@ -8308,7 +8281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="C22" s="8" t="str">
         <f>Regions!T3</f>
@@ -8321,7 +8294,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="C23" s="8" t="str">
         <f>Regions!U3</f>
@@ -8334,7 +8307,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="C24" s="8" t="str">
         <f>Regions!V3</f>
@@ -8347,7 +8320,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="C25" s="8" t="str">
         <f>Regions!W3</f>
@@ -8360,7 +8333,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="C26" s="8" t="str">
         <f>Regions!X3</f>
@@ -8373,7 +8346,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="C27" s="8" t="str">
         <f>Regions!Y3</f>
@@ -8386,7 +8359,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="C28" s="8" t="str">
         <f>Regions!Z3</f>
@@ -8399,38 +8372,38 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="C29" s="8" t="str">
         <f>Regions!AA3</f>
         <v>IE-SO</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="C30" s="8" t="str">
         <f>Regions!AB3</f>
         <v>IE-CN</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="C31" s="8" t="str">
         <f>Regions!AC3</f>
         <v>IE-DL</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="C32" s="8" t="str">
         <f>Regions!AD3</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
@@ -8439,19 +8412,19 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
     </row>
   </sheetData>
@@ -8474,40 +8447,40 @@
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="10" width="13.7109375" customWidth="1"/>
+    <col min="2" max="10" width="13.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="12"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="14" t="s">
         <v>148</v>
       </c>
@@ -8536,7 +8509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="13">
         <v>1</v>
       </c>
@@ -8565,7 +8538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="13">
         <v>1</v>
       </c>
@@ -8594,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="13">
         <v>1</v>
       </c>
@@ -8623,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="13">
         <v>20</v>
       </c>
@@ -8652,7 +8625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="13">
         <v>20</v>
       </c>
@@ -8681,7 +8654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C18" s="13">
         <v>5</v>
       </c>
@@ -8707,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C19" s="13">
         <v>45</v>
       </c>
@@ -8733,7 +8706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C20" s="13">
         <v>25</v>
       </c>
@@ -8759,7 +8732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C21" s="13">
         <v>5</v>
       </c>
@@ -8785,7 +8758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D22" s="13">
         <v>5</v>
       </c>
@@ -8808,7 +8781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D23" s="13">
         <v>5</v>
       </c>
@@ -8831,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D24" s="13">
         <v>5</v>
       </c>
@@ -8854,7 +8827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E25" s="13">
         <v>5</v>
       </c>
@@ -8874,7 +8847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F26" s="13">
         <v>5</v>
       </c>
@@ -8891,7 +8864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F27" s="13">
         <v>5</v>
       </c>
@@ -8908,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G28" s="13">
         <v>5</v>
       </c>
@@ -8922,7 +8895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G29" s="13">
         <v>5</v>
       </c>
@@ -8936,7 +8909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G30" s="13">
         <v>5</v>
       </c>
@@ -8950,7 +8923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G31" s="13">
         <v>5</v>
       </c>
@@ -8964,7 +8937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="G32" s="13">
         <v>5</v>
       </c>
@@ -8978,7 +8951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G33" s="13">
         <v>5</v>
       </c>
@@ -8992,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:10" x14ac:dyDescent="0.35">
       <c r="G34" s="13">
         <v>5</v>
       </c>
@@ -9006,7 +8979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:10" x14ac:dyDescent="0.35">
       <c r="H35" s="13">
         <v>5</v>
       </c>
@@ -9017,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I36" s="18">
         <v>1</v>
       </c>
@@ -9025,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I37" s="18">
         <v>1</v>
       </c>
@@ -9033,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I38" s="18">
         <v>1</v>
       </c>
@@ -9041,7 +9014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I39" s="18">
         <v>1</v>
       </c>
@@ -9049,7 +9022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I40" s="18">
         <v>1</v>
       </c>
@@ -9057,7 +9030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I41" s="18">
         <v>1</v>
       </c>
@@ -9065,7 +9038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I42" s="18">
         <v>1</v>
       </c>
@@ -9073,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I43" s="18">
         <v>1</v>
       </c>
@@ -9081,7 +9054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I44" s="18">
         <v>1</v>
       </c>
@@ -9089,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:10" x14ac:dyDescent="0.35">
       <c r="I45" s="18">
         <v>1</v>
       </c>
@@ -9097,32 +9070,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J46" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J47" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:10" x14ac:dyDescent="0.35">
       <c r="J48" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J49" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J50" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J51" s="18">
         <v>5</v>
       </c>
@@ -9142,17 +9115,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="16" t="s">
         <v>29</v>
       </c>
@@ -9160,7 +9133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
@@ -9168,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>32</v>
       </c>
@@ -9176,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
@@ -9184,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>34</v>
       </c>
@@ -9192,7 +9165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
@@ -9215,42 +9188,42 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="6.3984375" customWidth="1"/>
+    <col min="8" max="8" width="6.265625" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="23"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O3" s="25"/>
       <c r="P3" s="25"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O4" s="25"/>
       <c r="P4" s="25"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O5" s="25"/>
       <c r="P5" s="25"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="O7" s="25"/>
       <c r="P7" s="25"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -9268,7 +9241,7 @@
       <c r="O8" s="25"/>
       <c r="P8" s="25"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -9286,7 +9259,7 @@
       <c r="O9" s="25"/>
       <c r="P9" s="25"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -9304,7 +9277,7 @@
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -9322,7 +9295,7 @@
       <c r="O11" s="25"/>
       <c r="P11" s="25"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -9340,7 +9313,7 @@
       <c r="O12" s="25"/>
       <c r="P12" s="25"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="19" t="s">
         <v>56</v>
       </c>
@@ -9359,7 +9332,7 @@
       <c r="O13" s="25"/>
       <c r="P13" s="25"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A14" s="24" t="s">
         <v>0</v>
       </c>
@@ -9379,7 +9352,7 @@
       <c r="O14" s="25"/>
       <c r="P14" s="25"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
@@ -9429,7 +9402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
@@ -9455,7 +9428,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
@@ -9481,7 +9454,7 @@
       <c r="O17" s="25"/>
       <c r="P17" s="25"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -9499,7 +9472,7 @@
       <c r="O18" s="25"/>
       <c r="P18" s="25"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>
@@ -9517,7 +9490,7 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="25"/>
@@ -9535,7 +9508,7 @@
       <c r="O20" s="25"/>
       <c r="P20" s="25"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="25"/>
@@ -9553,7 +9526,7 @@
       <c r="O21" s="25"/>
       <c r="P21" s="25"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="25"/>
@@ -9571,7 +9544,7 @@
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
@@ -9589,7 +9562,7 @@
       <c r="O23" s="25"/>
       <c r="P23" s="25"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -9622,27 +9595,27 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.1328125" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B1" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>16</v>
       </c>
@@ -9662,7 +9635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
@@ -9670,7 +9643,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27" t="s">
@@ -9682,7 +9655,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B3,2))</f>
@@ -9700,7 +9673,7 @@
         <v>1.3926669328933141</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B4,2))</f>
@@ -9718,7 +9691,7 @@
         <v>1.3626878012654737</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B5,2))</f>
@@ -9736,7 +9709,7 @@
         <v>1.3346599424735295</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B6,2))</f>
@@ -9754,7 +9727,7 @@
         <v>1.3084901396799309</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B7,2))</f>
@@ -9772,7 +9745,7 @@
         <v>1.2828334702744419</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B8,2))</f>
@@ -9790,7 +9763,7 @@
         <v>1.2552186597597279</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B9,2))</f>
@@ -9808,7 +9781,7 @@
         <v>1.2281982972208687</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B10,2))</f>
@@ -9826,7 +9799,7 @@
         <v>1.2005848457682002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B11,2))</f>
@@ -9844,7 +9817,7 @@
         <v>1.1577481637108971</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B12,2))</f>
@@ -9862,7 +9835,7 @@
         <v>1.1462853106048485</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B13,2))</f>
@@ -9880,7 +9853,7 @@
         <v>1.1227084335013209</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B14,2))</f>
@@ -9898,7 +9871,7 @@
         <v>1.0889509539295061</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B15,2))</f>
@@ -9916,7 +9889,7 @@
         <v>1.0613557055843141</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B16,2))</f>
@@ -9934,7 +9907,7 @@
         <v>1.045670645895876</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B17,2))</f>
@@ -9952,7 +9925,7 @@
         <v>1.0394340416460002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B18,2))</f>
@@ -9970,7 +9943,7 @@
         <v>1.0383956459999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B19,2))</f>
@@ -9988,7 +9961,7 @@
         <v>1.0363230000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="str">
         <f>_xlfn.CONCAT("EUR",RIGHT(CPI!B20,2))</f>
@@ -10006,7 +9979,7 @@
         <v>1.0190000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
         <v>65</v>
@@ -10023,7 +9996,7 @@
         <v>0.98522167487684731</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C26" s="7" t="s">
         <v>152</v>
       </c>
@@ -10039,16 +10012,16 @@
         <v>0.9783730634328176</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B34" s="26"/>
     </row>
   </sheetData>
@@ -10066,12 +10039,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
@@ -10082,7 +10055,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>48</v>
       </c>
@@ -10120,7 +10093,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
@@ -10149,7 +10122,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="str">
         <f>Constants!C7</f>
         <v>EUR00</v>
@@ -10179,7 +10152,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="str">
         <f>Constants!C8</f>
         <v>EUR01</v>
@@ -10209,7 +10182,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="str">
         <f>Constants!C9</f>
         <v>EUR02</v>
@@ -10224,7 +10197,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="str">
         <f>Constants!C10</f>
         <v>EUR03</v>
@@ -10239,7 +10212,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B9" s="7" t="str">
         <f>Constants!C11</f>
         <v>EUR04</v>
@@ -10254,7 +10227,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B10" s="7" t="str">
         <f>Constants!C12</f>
         <v>EUR05</v>
@@ -10269,7 +10242,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B11" s="7" t="str">
         <f>Constants!C13</f>
         <v>EUR06</v>
@@ -10284,7 +10257,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B12" s="7" t="str">
         <f>Constants!C14</f>
         <v>EUR07</v>
@@ -10299,7 +10272,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="str">
         <f>Constants!C15</f>
         <v>EUR08</v>
@@ -10314,7 +10287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B14" s="7" t="str">
         <f>Constants!C16</f>
         <v>EUR09</v>
@@ -10329,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B15" s="7" t="str">
         <f>Constants!C17</f>
         <v>EUR10</v>
@@ -10344,55 +10317,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B16" s="7" t="str">
         <f>Constants!C18</f>
         <v>EUR11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B17" s="7" t="str">
         <f>Constants!C19</f>
         <v>EUR12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B18" s="7" t="str">
         <f>Constants!C20</f>
         <v>EUR13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B19" s="7" t="str">
         <f>Constants!C21</f>
         <v>EUR14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B20" s="7" t="str">
         <f>Constants!C22</f>
         <v>EUR15</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B21" s="7" t="str">
         <f>Constants!C23</f>
         <v>EUR16</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B22" s="7" t="str">
         <f>Constants!C24</f>
         <v>EUR17</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B23" s="7" t="str">
         <f>Constants!C25</f>
         <v>EUR19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="13.15" x14ac:dyDescent="0.4">
       <c r="B24" s="7" t="str">
         <f>Constants!C26</f>
         <v>EUR20</v>
@@ -10413,13 +10386,13 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="3" max="4" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="29"/>
       <c r="C2" s="30" t="s">
         <v>38</v>
@@ -10428,7 +10401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B3" s="32">
         <v>2000</v>
       </c>
@@ -10437,7 +10410,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B4" s="32">
         <v>2001</v>
       </c>
@@ -10449,7 +10422,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B5" s="32">
         <v>2002</v>
       </c>
@@ -10461,7 +10434,7 @@
         <v>104.34620000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B6" s="32">
         <v>2003</v>
       </c>
@@ -10473,7 +10446,7 @@
         <v>106.43312400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B7" s="32">
         <v>2004</v>
       </c>
@@ -10485,7 +10458,7 @@
         <v>108.56178648000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B8" s="32">
         <v>2005</v>
       </c>
@@ -10497,7 +10470,7 @@
         <v>110.95014578256001</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B9" s="32">
         <v>2006</v>
       </c>
@@ -10509,7 +10482,7 @@
         <v>113.39104898977634</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B10" s="32">
         <v>2007</v>
       </c>
@@ -10521,7 +10494,7 @@
         <v>115.99904311654119</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B11" s="32">
         <v>2008</v>
       </c>
@@ -10533,7 +10506,7 @@
         <v>120.29100771185321</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B12" s="32">
         <v>2009</v>
       </c>
@@ -10545,7 +10518,7 @@
         <v>121.49391778897174</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B13" s="32">
         <v>2010</v>
       </c>
@@ -10557,7 +10530,7 @@
         <v>124.04529006254015</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B14" s="32">
         <v>2011</v>
       </c>
@@ -10569,7 +10542,7 @@
         <v>127.89069405447889</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B15" s="32">
         <v>2012</v>
       </c>
@@ -10581,7 +10554,7 @@
         <v>131.21585209989533</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B16" s="32">
         <v>2013</v>
       </c>
@@ -10593,7 +10566,7 @@
         <v>133.18408988139376</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B17" s="32">
         <v>2014</v>
       </c>
@@ -10605,7 +10578,7 @@
         <v>133.98319442068211</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B18" s="32">
         <v>2015</v>
       </c>
@@ -10617,7 +10590,7 @@
         <v>134.1171776151028</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B19" s="37">
         <v>2016</v>
       </c>
@@ -10629,7 +10602,7 @@
         <v>134.385411970333</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B20" s="37">
         <v>2017</v>
       </c>
@@ -10641,7 +10614,7 @@
         <v>136.66996397382866</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B21" s="37">
         <v>2018</v>
       </c>
@@ -10653,7 +10626,7 @@
         <v>139.26669328933141</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B22" s="37">
         <v>2019</v>
       </c>
@@ -10665,7 +10638,7 @@
         <v>141.35569368867138</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B23" s="37">
         <v>2020</v>
       </c>
@@ -10677,7 +10650,7 @@
         <v>142.34518354449207</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14.25" x14ac:dyDescent="0.35">
       <c r="B25" s="36" t="s">
         <v>40</v>
       </c>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273CD800-4683-4C80-89EA-6D14D4E26CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6EC06-CAFD-4669-8E22-3A4E307F0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>P9</t>
-  </si>
-  <si>
-    <t>P22</t>
   </si>
   <si>
     <t>P23</t>
@@ -2271,7 +2268,7 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>2859</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -4462,7 +4459,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16" s="57"/>
       <c r="C16" s="57"/>
@@ -4548,10 +4545,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
@@ -4580,10 +4577,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B20" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
@@ -4612,10 +4609,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -4672,10 +4669,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
@@ -4760,10 +4757,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B26" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -4848,7 +4845,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" s="52">
         <v>1</v>
@@ -4880,10 +4877,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="58" t="s">
         <v>152</v>
-      </c>
-      <c r="B30" s="58" t="s">
-        <v>153</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -4912,10 +4909,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="56" t="s">
-        <v>155</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
@@ -4945,7 +4942,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="55" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="54"/>
@@ -7555,8 +7552,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7825,46 +7822,46 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B3:J51"/>
+  <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="10" width="13.7109375" customWidth="1"/>
+    <col min="2" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>137</v>
       </c>
@@ -7884,16 +7881,13 @@
         <v>139</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I12" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -7910,19 +7904,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="12">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
         <v>1</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
       </c>
-      <c r="J13" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -7941,17 +7932,14 @@
       <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="17">
         <v>1</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
       </c>
-      <c r="J14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -7970,17 +7958,14 @@
       <c r="G15" s="12">
         <v>1</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="17">
         <v>1</v>
       </c>
       <c r="I15" s="17">
         <v>1</v>
       </c>
-      <c r="J15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="12">
         <v>20</v>
       </c>
@@ -7999,17 +7984,14 @@
       <c r="G16" s="12">
         <v>1</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="17">
         <v>1</v>
       </c>
       <c r="I16" s="17">
         <v>1</v>
       </c>
-      <c r="J16" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="12">
         <v>20</v>
       </c>
@@ -8028,17 +8010,14 @@
       <c r="G17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="17">
         <v>1</v>
       </c>
       <c r="I17" s="17">
         <v>1</v>
       </c>
-      <c r="J17" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="12">
         <v>5</v>
       </c>
@@ -8054,17 +8033,14 @@
       <c r="G18" s="12">
         <v>1</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="17">
         <v>1</v>
       </c>
       <c r="I18" s="17">
         <v>1</v>
       </c>
-      <c r="J18" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>45</v>
       </c>
@@ -8080,17 +8056,14 @@
       <c r="G19" s="12">
         <v>1</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="17">
         <v>1</v>
       </c>
       <c r="I19" s="17">
         <v>1</v>
       </c>
-      <c r="J19" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="12">
         <v>25</v>
       </c>
@@ -8106,17 +8079,14 @@
       <c r="G20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="17">
         <v>1</v>
       </c>
       <c r="I20" s="17">
         <v>1</v>
       </c>
-      <c r="J20" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>5</v>
       </c>
@@ -8132,17 +8102,14 @@
       <c r="G21" s="12">
         <v>1</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="17">
         <v>1</v>
       </c>
       <c r="I21" s="17">
         <v>1</v>
       </c>
-      <c r="J21" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D22" s="12">
         <v>5</v>
       </c>
@@ -8155,17 +8122,14 @@
       <c r="G22" s="12">
         <v>1</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="17">
         <v>1</v>
       </c>
       <c r="I22" s="17">
         <v>1</v>
       </c>
-      <c r="J22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D23" s="12">
         <v>5</v>
       </c>
@@ -8178,17 +8142,14 @@
       <c r="G23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="17">
         <v>1</v>
       </c>
       <c r="I23" s="17">
         <v>1</v>
       </c>
-      <c r="J23" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D24" s="12">
         <v>5</v>
       </c>
@@ -8201,17 +8162,14 @@
       <c r="G24" s="12">
         <v>1</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="17">
         <v>1</v>
       </c>
       <c r="I24" s="17">
         <v>1</v>
       </c>
-      <c r="J24" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E25" s="12">
         <v>5</v>
       </c>
@@ -8221,266 +8179,236 @@
       <c r="G25" s="12">
         <v>1</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="17">
         <v>1</v>
       </c>
       <c r="I25" s="17">
         <v>1</v>
       </c>
-      <c r="J25" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F26" s="12">
         <v>5</v>
       </c>
       <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="17">
         <v>1</v>
       </c>
       <c r="I26" s="17">
         <v>1</v>
       </c>
-      <c r="J26" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="F27" s="12">
         <v>5</v>
       </c>
       <c r="G27" s="12">
-        <v>5</v>
-      </c>
-      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
         <v>1</v>
       </c>
       <c r="I27" s="17">
         <v>1</v>
       </c>
-      <c r="J27" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G28" s="12">
         <v>5</v>
       </c>
-      <c r="H28" s="12">
-        <v>5</v>
+      <c r="H28" s="17">
+        <v>1</v>
       </c>
       <c r="I28" s="17">
         <v>1</v>
       </c>
-      <c r="J28" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G29" s="12">
         <v>5</v>
       </c>
-      <c r="H29" s="12">
-        <v>5</v>
+      <c r="H29" s="17">
+        <v>1</v>
       </c>
       <c r="I29" s="17">
         <v>1</v>
       </c>
-      <c r="J29" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G30" s="12">
         <v>5</v>
       </c>
-      <c r="H30" s="12">
-        <v>5</v>
+      <c r="H30" s="17">
+        <v>1</v>
       </c>
       <c r="I30" s="17">
         <v>1</v>
       </c>
-      <c r="J30" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G31" s="12">
         <v>5</v>
       </c>
-      <c r="H31" s="12">
-        <v>5</v>
+      <c r="H31" s="17">
+        <v>1</v>
       </c>
       <c r="I31" s="17">
         <v>1</v>
       </c>
-      <c r="J31" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G32" s="12">
         <v>5</v>
       </c>
-      <c r="H32" s="12">
-        <v>5</v>
+      <c r="H32" s="17">
+        <v>1</v>
       </c>
       <c r="I32" s="17">
         <v>1</v>
       </c>
-      <c r="J32" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G33" s="12">
         <v>5</v>
       </c>
-      <c r="H33" s="12">
-        <v>5</v>
+      <c r="H33" s="17">
+        <v>1</v>
       </c>
       <c r="I33" s="17">
         <v>1</v>
       </c>
-      <c r="J33" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
       <c r="G34" s="12">
         <v>5</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="17">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="G35" s="12">
         <v>5</v>
       </c>
-      <c r="I34" s="17">
-        <v>1</v>
-      </c>
-      <c r="J34" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="12">
+      <c r="H35" s="17">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="17">
+        <v>1</v>
+      </c>
+      <c r="I36" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="17">
+        <v>1</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="17">
+        <v>1</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="17">
+        <v>1</v>
+      </c>
+      <c r="I43" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="17">
+        <v>1</v>
+      </c>
+      <c r="I44" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="17">
+        <v>1</v>
+      </c>
+      <c r="I45" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="17">
         <v>5</v>
       </c>
-      <c r="I35" s="17">
-        <v>1</v>
-      </c>
-      <c r="J35" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I36" s="17">
-        <v>1</v>
-      </c>
-      <c r="J36" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I37" s="17">
-        <v>1</v>
-      </c>
-      <c r="J37" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I38" s="17">
-        <v>1</v>
-      </c>
-      <c r="J38" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I39" s="17">
-        <v>1</v>
-      </c>
-      <c r="J39" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I40" s="17">
-        <v>1</v>
-      </c>
-      <c r="J40" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I41" s="17">
-        <v>1</v>
-      </c>
-      <c r="J41" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I42" s="17">
-        <v>1</v>
-      </c>
-      <c r="J42" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I43" s="17">
-        <v>1</v>
-      </c>
-      <c r="J43" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I44" s="17">
-        <v>1</v>
-      </c>
-      <c r="J44" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="I45" s="17">
-        <v>1</v>
-      </c>
-      <c r="J45" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="J48" s="17">
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="17">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J50" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J51" s="17">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="17">
         <v>5</v>
       </c>
     </row>
@@ -9053,7 +8981,7 @@
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7" s="27">
         <f>CPI!$D$21/CPI!D3</f>
@@ -9071,7 +8999,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G8" s="25">
         <f>CPI!$D$21/CPI!D4</f>
@@ -9089,7 +9017,7 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G9" s="25">
         <f>CPI!$D$21/CPI!D5</f>
@@ -9107,7 +9035,7 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="25">
         <f>CPI!$D$21/CPI!D6</f>
@@ -9125,7 +9053,7 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G11" s="25">
         <f>CPI!$D$21/CPI!D7</f>
@@ -9143,7 +9071,7 @@
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="25">
         <f>CPI!$D$21/CPI!D8</f>
@@ -9161,7 +9089,7 @@
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="25">
         <f>CPI!$D$21/CPI!D9</f>
@@ -9179,7 +9107,7 @@
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G14" s="25">
         <f>CPI!$D$21/CPI!D10</f>
@@ -9197,7 +9125,7 @@
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G15" s="25">
         <f>CPI!$D$21/CPI!D11</f>
@@ -9215,7 +9143,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G16" s="25">
         <f>CPI!$D$21/CPI!D12</f>
@@ -9233,7 +9161,7 @@
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G17" s="25">
         <f>CPI!$D$21/CPI!D13</f>
@@ -9251,7 +9179,7 @@
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G18" s="25">
         <f>CPI!$D$21/CPI!D14</f>
@@ -9269,7 +9197,7 @@
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G19" s="25">
         <f>CPI!$D$21/CPI!D15</f>
@@ -9287,7 +9215,7 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G20" s="25">
         <f>CPI!$D$21/CPI!D16</f>
@@ -9305,7 +9233,7 @@
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G21" s="25">
         <f>CPI!$D$21/CPI!D17</f>
@@ -9323,7 +9251,7 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G22" s="25">
         <f>CPI!$D$21/CPI!D18</f>
@@ -9341,7 +9269,7 @@
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="25">
         <f>CPI!$D$21/CPI!D19</f>
@@ -9359,7 +9287,7 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="25">
         <f>CPI!$D$21/CPI!D20</f>
@@ -9377,7 +9305,7 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G25" s="25">
         <f>CPI!$D$21/CPI!D22</f>
@@ -9394,7 +9322,7 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G26" s="25">
         <f>CPI!$D$21/CPI!D23</f>
@@ -9411,7 +9339,7 @@
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G27" s="25">
         <f>CPI!$D$21/CPI!D24</f>
@@ -9479,13 +9407,13 @@
         <v>55</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>56</v>
@@ -9502,7 +9430,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>46</v>
@@ -9538,10 +9466,10 @@
         <v>47</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>58</v>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6EC06-CAFD-4669-8E22-3A4E307F0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004912E0-20DC-414D-BED2-579E803A8916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -106,7 +106,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -7824,7 +7823,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -8498,8 +8497,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8725,7 +8724,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24">
-        <v>2222</v>
+        <v>22222</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -8751,7 +8750,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24">
-        <v>8888</v>
+        <v>88888</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D6EC06-CAFD-4669-8E22-3A4E307F0B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A4287-B3C3-4A5F-8A0B-C56B721DD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="167">
   <si>
     <t>~TFM_UPD</t>
   </si>
@@ -618,6 +618,21 @@
   </si>
   <si>
     <t>MEUR2018</t>
+  </si>
+  <si>
+    <t>IND*</t>
+  </si>
+  <si>
+    <t>*HTH,*LTH,*MTH,*HET</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*FLO_BND</t>
   </si>
 </sst>
 </file>
@@ -3696,9 +3711,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3736,9 +3751,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3771,26 +3786,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3823,26 +3821,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7824,7 +7805,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B3:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
@@ -8498,8 +8479,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8725,7 +8706,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24">
-        <v>2222</v>
+        <v>8888</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -8751,7 +8732,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24">
-        <v>8888</v>
+        <v>15000</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -8787,7 +8768,9 @@
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23" t="s">
+        <v>11</v>
+      </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -8804,53 +8787,107 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="21" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>166</v>
+      </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
+      <c r="F21" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
+      <c r="I21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="K21" s="24"/>
       <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="M21" s="24" t="s">
+        <v>162</v>
+      </c>
       <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
+      <c r="O21" s="24" t="s">
+        <v>163</v>
+      </c>
       <c r="P21" s="24"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="C22" s="24" t="s">
+        <v>164</v>
+      </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
-      <c r="F22" s="23"/>
+      <c r="F22" s="24">
+        <v>0</v>
+      </c>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
+      <c r="J22" s="24" t="s">
+        <v>5</v>
+      </c>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>

--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5A4287-B3C3-4A5F-8A0B-C56B721DD7F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AA136-4DE9-4258-B5D3-4EFEAACF9132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1790" yWindow="2760" windowWidth="21640" windowHeight="11200" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="28" r:id="rId1"/>
@@ -1550,7 +1550,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -4004,21 +4004,21 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="42" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="42" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="42" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="42" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="42" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="42" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="42" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="42" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="42" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="42" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="42" customWidth="1"/>
     <col min="13" max="13" width="10" style="42" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="42" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="42" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="42"/>
+    <col min="14" max="14" width="11.453125" style="42" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="42" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -4046,7 +4046,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -4074,7 +4074,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -4102,7 +4102,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -4130,7 +4130,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -4158,7 +4158,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -4186,7 +4186,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -4214,7 +4214,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -4242,7 +4242,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -4270,7 +4270,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -4298,7 +4298,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -4326,7 +4326,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -4354,7 +4354,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -4382,7 +4382,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -4410,7 +4410,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -4438,7 +4438,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="57" t="s">
         <v>144</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="45"/>
@@ -4496,7 +4496,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="45"/>
@@ -4524,7 +4524,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="48" t="s">
         <v>145</v>
       </c>
@@ -4556,7 +4556,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="48" t="s">
         <v>146</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>147</v>
       </c>
@@ -4620,7 +4620,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="48"/>
       <c r="B22" s="51"/>
       <c r="C22" s="51"/>
@@ -4648,7 +4648,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="48" t="s">
         <v>148</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48"/>
       <c r="B24" s="51"/>
       <c r="C24" s="51"/>
@@ -4708,7 +4708,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="48"/>
       <c r="B25" s="51"/>
       <c r="C25" s="51"/>
@@ -4736,7 +4736,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="48" t="s">
         <v>149</v>
       </c>
@@ -4768,7 +4768,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="48"/>
       <c r="B27" s="51"/>
       <c r="C27" s="51"/>
@@ -4796,7 +4796,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="48"/>
       <c r="B28" s="51"/>
       <c r="C28" s="51"/>
@@ -4824,7 +4824,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="48" t="s">
         <v>150</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="48" t="s">
         <v>151</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="48" t="s">
         <v>153</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="54"/>
       <c r="B32" s="55" t="s">
         <v>155</v>
@@ -4950,7 +4950,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -4978,7 +4978,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -5006,7 +5006,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -5034,7 +5034,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -5062,7 +5062,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -5090,7 +5090,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -5118,7 +5118,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -5146,7 +5146,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -5174,7 +5174,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -5202,7 +5202,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -5230,7 +5230,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -5258,7 +5258,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -5286,7 +5286,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -5314,7 +5314,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -5342,7 +5342,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -5370,7 +5370,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -5398,7 +5398,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -5426,7 +5426,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -5454,7 +5454,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -5482,7 +5482,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -5510,7 +5510,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -5538,7 +5538,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -5566,7 +5566,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -5594,7 +5594,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -5622,7 +5622,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -5650,7 +5650,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -5678,7 +5678,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -5706,7 +5706,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -5734,7 +5734,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -5762,7 +5762,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -5790,7 +5790,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -5818,7 +5818,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -5846,7 +5846,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -5874,7 +5874,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -5902,7 +5902,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -5930,7 +5930,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -5958,7 +5958,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -5986,7 +5986,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -6014,7 +6014,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -6042,7 +6042,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -6070,7 +6070,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -6098,7 +6098,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -6126,7 +6126,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -6154,7 +6154,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -6182,7 +6182,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -6210,7 +6210,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -6238,7 +6238,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -6266,7 +6266,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -6294,7 +6294,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -6322,7 +6322,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -6350,7 +6350,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -6378,7 +6378,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -6406,7 +6406,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -6434,7 +6434,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -6462,7 +6462,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -6490,7 +6490,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -6518,7 +6518,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -6546,7 +6546,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -6574,7 +6574,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -6602,7 +6602,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -6630,7 +6630,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -6658,7 +6658,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -6686,7 +6686,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -6714,7 +6714,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -6742,7 +6742,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -6770,7 +6770,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -6798,7 +6798,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -6855,38 +6855,38 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" customWidth="1"/>
     <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" customWidth="1"/>
+    <col min="16" max="16" width="7.1796875" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" customWidth="1"/>
     <col min="18" max="18" width="6" customWidth="1"/>
-    <col min="19" max="19" width="5.85546875" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" customWidth="1"/>
+    <col min="19" max="19" width="5.81640625" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" customWidth="1"/>
     <col min="23" max="23" width="5" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" customWidth="1"/>
     <col min="26" max="28" width="6" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="str">
         <f t="array" ref="C3">IF(INDEX(C5:C7,$A$4)&lt;&gt;0,INDEX(C5:C7,$A$4),"")</f>
         <v>IE</v>
@@ -7000,13 +7000,13 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>62</v>
       </c>
@@ -7157,7 +7157,7 @@
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
     </row>
-    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>63</v>
       </c>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="AD7" s="2"/>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>66</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>70</v>
       </c>
@@ -7303,7 +7303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>76</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>78</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>80</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>82</v>
       </c>
@@ -7351,7 +7351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>86</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>88</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
@@ -7391,7 +7391,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>94</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>96</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>102</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>104</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>106</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>108</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>110</v>
       </c>
@@ -7463,7 +7463,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>112</v>
       </c>
@@ -7471,7 +7471,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>114</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>116</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>118</v>
       </c>
@@ -7513,7 +7513,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7537,20 +7537,20 @@
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="1" max="2" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7"/>
       <c r="B4" s="9" t="s">
         <v>8</v>
@@ -7559,7 +7559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>33</v>
@@ -7569,7 +7569,7 @@
         <v>IE</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8" t="str">
@@ -7577,7 +7577,7 @@
         <v>National</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8" t="str">
@@ -7585,7 +7585,7 @@
         <v>IE-CW</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8" t="str">
@@ -7593,7 +7593,7 @@
         <v>IE-D</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8" t="str">
@@ -7601,7 +7601,7 @@
         <v>IE-KE</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8" t="str">
@@ -7609,7 +7609,7 @@
         <v>IE-KK</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8" t="str">
@@ -7617,7 +7617,7 @@
         <v>IE-LS</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="str">
@@ -7625,7 +7625,7 @@
         <v>IE-LD</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="str">
@@ -7633,7 +7633,7 @@
         <v>IE-LH</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="str">
@@ -7641,7 +7641,7 @@
         <v>IE-MH</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="str">
@@ -7649,7 +7649,7 @@
         <v>IE-OY</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="str">
@@ -7657,7 +7657,7 @@
         <v>IE-WH</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="str">
@@ -7665,7 +7665,7 @@
         <v>IE-WX</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="str">
@@ -7673,7 +7673,7 @@
         <v>IE-WW</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="str">
@@ -7681,116 +7681,116 @@
         <v>IE-CE</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="C20" s="8" t="str">
         <f>Regions!R3</f>
         <v>IE-CO</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="C21" s="8" t="str">
         <f>Regions!S3</f>
         <v>IE-KY</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="C22" s="8" t="str">
         <f>Regions!T3</f>
         <v>IE-LK</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="C23" s="8" t="str">
         <f>Regions!U3</f>
         <v>IE-TA</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="C24" s="8" t="str">
         <f>Regions!V3</f>
         <v>IE-WD</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="C25" s="8" t="str">
         <f>Regions!W3</f>
         <v>IE-G</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="C26" s="8" t="str">
         <f>Regions!X3</f>
         <v>IE-LM</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="C27" s="8" t="str">
         <f>Regions!Y3</f>
         <v>IE-MO</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="C28" s="8" t="str">
         <f>Regions!Z3</f>
         <v>IE-RN</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="C29" s="8" t="str">
         <f>Regions!AA3</f>
         <v>IE-SO</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="C30" s="8" t="str">
         <f>Regions!AB3</f>
         <v>IE-CN</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="C31" s="8" t="str">
         <f>Regions!AC3</f>
         <v>IE-DL</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="C32" s="8" t="str">
         <f>Regions!AD3</f>
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" ht="13" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
     </row>
   </sheetData>
@@ -7809,40 +7809,40 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="13.7109375" customWidth="1"/>
+    <col min="2" max="9" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="11"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
         <v>137</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
         <v>1</v>
       </c>
@@ -7894,7 +7894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
         <v>1</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="12">
         <v>1</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="12">
         <v>20</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
         <v>20</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" s="12">
         <v>5</v>
       </c>
@@ -8021,7 +8021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" s="12">
         <v>45</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" s="12">
         <v>25</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" s="12">
         <v>5</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D22" s="12">
         <v>5</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D23" s="12">
         <v>5</v>
       </c>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D24" s="12">
         <v>5</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E25" s="12">
         <v>5</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F26" s="12">
         <v>5</v>
       </c>
@@ -8181,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F27" s="12">
         <v>5</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G28" s="12">
         <v>5</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G29" s="12">
         <v>5</v>
       </c>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G30" s="12">
         <v>5</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G31" s="12">
         <v>5</v>
       </c>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G32" s="12">
         <v>5</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G33" s="12">
         <v>5</v>
       </c>
@@ -8261,7 +8261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G34" s="12">
         <v>5</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G35" s="12">
         <v>5</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H36" s="17">
         <v>1</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H37" s="17">
         <v>1</v>
       </c>
@@ -8299,7 +8299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H38" s="17">
         <v>1</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H39" s="17">
         <v>1</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H40" s="17">
         <v>1</v>
       </c>
@@ -8323,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H41" s="17">
         <v>1</v>
       </c>
@@ -8331,7 +8331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H42" s="17">
         <v>1</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H43" s="17">
         <v>1</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H44" s="17">
         <v>1</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
       <c r="H45" s="17">
         <v>1</v>
       </c>
@@ -8363,32 +8363,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I46" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I47" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="7:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
       <c r="I48" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I49" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I50" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I51" s="17">
         <v>5</v>
       </c>
@@ -8409,17 +8409,17 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>25</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>27</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>29</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
@@ -8459,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>49</v>
       </c>
@@ -8480,45 +8480,45 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.453125" customWidth="1"/>
+    <col min="8" max="8" width="6.26953125" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O2" s="7"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O3" s="24"/>
       <c r="P3" s="24"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O5" s="24"/>
       <c r="P5" s="24"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O6" s="24"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="O7" s="24"/>
       <c r="P7" s="24"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -8536,7 +8536,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -8554,7 +8554,7 @@
       <c r="O9" s="24"/>
       <c r="P9" s="24"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -8572,7 +8572,7 @@
       <c r="O10" s="24"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -8590,7 +8590,7 @@
       <c r="O11" s="24"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -8608,7 +8608,7 @@
       <c r="O12" s="24"/>
       <c r="P12" s="24"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
         <v>52</v>
       </c>
@@ -8627,7 +8627,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
         <v>0</v>
       </c>
@@ -8647,7 +8647,7 @@
       <c r="O14" s="24"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
@@ -8706,7 +8706,7 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24">
-        <v>8888</v>
+        <v>2500</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
@@ -8723,7 +8723,7 @@
       <c r="O16" s="24"/>
       <c r="P16" s="24"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="s">
@@ -8732,7 +8732,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24">
-        <v>15000</v>
+        <v>5000</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -8749,7 +8749,7 @@
       <c r="O17" s="24"/>
       <c r="P17" s="24"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
@@ -8767,7 +8767,7 @@
       <c r="O18" s="24"/>
       <c r="P18" s="24"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>11</v>
       </c>
@@ -8787,7 +8787,7 @@
       <c r="O19" s="24"/>
       <c r="P19" s="24"/>
     </row>
-    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
         <v>12</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>165</v>
       </c>
@@ -8871,7 +8871,7 @@
       </c>
       <c r="P21" s="24"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
@@ -8895,7 +8895,7 @@
       <c r="O22" s="24"/>
       <c r="P22" s="24"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
@@ -8913,7 +8913,7 @@
       <c r="O23" s="24"/>
       <c r="P23" s="24"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="13" x14ac:dyDescent="0.3">
       <c r="A24" s="24"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
@@ -8947,27 +8947,27 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="D5" s="7" t="s">
         <v>39</v>
       </c>
@@ -8995,7 +8995,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
@@ -9007,7 +9007,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="26" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B3,4))</f>
@@ -9025,7 +9025,7 @@
         <v>1.3926669328933141</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B4,4))</f>
@@ -9043,7 +9043,7 @@
         <v>1.3626878012654737</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="7"/>
       <c r="C9" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B5,4))</f>
@@ -9061,7 +9061,7 @@
         <v>1.3346599424735295</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B6,4))</f>
@@ -9079,7 +9079,7 @@
         <v>1.3084901396799309</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B7,4))</f>
@@ -9097,7 +9097,7 @@
         <v>1.2828334702744419</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B8,4))</f>
@@ -9115,7 +9115,7 @@
         <v>1.2552186597597279</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="7"/>
       <c r="C13" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B9,4))</f>
@@ -9133,7 +9133,7 @@
         <v>1.2281982972208687</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B10,4))</f>
@@ -9151,7 +9151,7 @@
         <v>1.2005848457682002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
       <c r="C15" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B11,4))</f>
@@ -9169,7 +9169,7 @@
         <v>1.1577481637108971</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B12,4))</f>
@@ -9187,7 +9187,7 @@
         <v>1.1462853106048485</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B13,4))</f>
@@ -9205,7 +9205,7 @@
         <v>1.1227084335013209</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B14,4))</f>
@@ -9223,7 +9223,7 @@
         <v>1.0889509539295061</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B15,4))</f>
@@ -9241,7 +9241,7 @@
         <v>1.0613557055843141</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B16,4))</f>
@@ -9259,7 +9259,7 @@
         <v>1.045670645895876</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B17,4))</f>
@@ -9277,7 +9277,7 @@
         <v>1.0394340416460002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B18,4))</f>
@@ -9295,7 +9295,7 @@
         <v>1.0383956459999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B19,4))</f>
@@ -9313,7 +9313,7 @@
         <v>1.0363230000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B20,4))</f>
@@ -9331,7 +9331,7 @@
         <v>1.0190000000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B22,4))</f>
@@ -9349,7 +9349,7 @@
         <v>0.98522167487684731</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C26" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B23,4))</f>
         <v>MEUR2020</v>
@@ -9366,7 +9366,7 @@
         <v>0.9783730634328176</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="C27" s="7" t="str">
         <f>_xlfn.CONCAT("MEUR",RIGHT(CPI!B24,4))</f>
         <v>MEUR2021</v>
@@ -9383,16 +9383,16 @@
         <v>0.95079986728164989</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" ht="13" x14ac:dyDescent="0.3">
       <c r="B32" s="7"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B33" s="7"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B34" s="25"/>
     </row>
   </sheetData>
@@ -9411,12 +9411,12 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>43</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>44</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>161</v>
       </c>
@@ -9494,7 +9494,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="str">
         <f>Constants!C7</f>
         <v>MEUR2000</v>
@@ -9524,7 +9524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="str">
         <f>Constants!C8</f>
         <v>MEUR2001</v>
@@ -9554,7 +9554,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="str">
         <f>Constants!C9</f>
         <v>MEUR2002</v>
@@ -9569,7 +9569,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="str">
         <f>Constants!C10</f>
         <v>MEUR2003</v>
@@ -9584,7 +9584,7 @@
         <v>41.87</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="str">
         <f>Constants!C11</f>
         <v>MEUR2004</v>
@@ -9599,7 +9599,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="str">
         <f>Constants!C12</f>
         <v>MEUR2005</v>
@@ -9614,7 +9614,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="str">
         <f>Constants!C13</f>
         <v>MEUR2006</v>
@@ -9629,7 +9629,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="str">
         <f>Constants!C14</f>
         <v>MEUR2007</v>
@@ -9644,7 +9644,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="str">
         <f>Constants!C15</f>
         <v>MEUR2008</v>
@@ -9659,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="str">
         <f>Constants!C16</f>
         <v>MEUR2009</v>
@@ -9674,7 +9674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="str">
         <f>Constants!C17</f>
         <v>MEUR2010</v>
@@ -9689,61 +9689,61 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="13" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="str">
         <f>Constants!C18</f>
         <v>MEUR2011</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="str">
         <f>Constants!C19</f>
         <v>MEUR2012</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="str">
         <f>Constants!C20</f>
         <v>MEUR2013</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="str">
         <f>Constants!C21</f>
         <v>MEUR2014</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="str">
         <f>Constants!C22</f>
         <v>MEUR2015</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="str">
         <f>Constants!C23</f>
         <v>MEUR2016</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="str">
         <f>Constants!C24</f>
         <v>MEUR2017</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="str">
         <f>Constants!C25</f>
         <v>MEUR2019</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="str">
         <f>Constants!C26</f>
         <v>MEUR2020</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="13" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="str">
         <f>Constants!C27</f>
         <v>MEUR2021</v>
@@ -9765,13 +9765,13 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="4" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="4" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28"/>
       <c r="C2" s="29" t="s">
         <v>34</v>
@@ -9780,7 +9780,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B3" s="31">
         <v>2000</v>
       </c>
@@ -9789,7 +9789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B4" s="31">
         <v>2001</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B5" s="31">
         <v>2002</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>104.34620000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B6" s="31">
         <v>2003</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>106.43312400000001</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B7" s="31">
         <v>2004</v>
       </c>
@@ -9837,7 +9837,7 @@
         <v>108.56178648000001</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B8" s="31">
         <v>2005</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>110.95014578256001</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B9" s="31">
         <v>2006</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>113.39104898977634</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B10" s="31">
         <v>2007</v>
       </c>
@@ -9873,7 +9873,7 @@
         <v>115.99904311654119</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B11" s="31">
         <v>2008</v>
       </c>
@@ -9885,7 +9885,7 @@
         <v>120.29100771185321</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B12" s="31">
         <v>2009</v>
       </c>
@@ -9897,7 +9897,7 @@
         <v>121.49391778897174</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>2010</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>124.04529006254015</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B14" s="31">
         <v>2011</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>127.89069405447889</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B15" s="31">
         <v>2012</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>131.21585209989533</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B16" s="31">
         <v>2013</v>
       </c>
@@ -9945,7 +9945,7 @@
         <v>133.18408988139376</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B17" s="31">
         <v>2014</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>133.98319442068211</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B18" s="31">
         <v>2015</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>134.1171776151028</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B19" s="36">
         <v>2016</v>
       </c>
@@ -9981,7 +9981,7 @@
         <v>134.385411970333</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B20" s="36">
         <v>2017</v>
       </c>
@@ -9993,7 +9993,7 @@
         <v>136.66996397382866</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B21" s="36">
         <v>2018</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>139.26669328933141</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B22" s="36">
         <v>2019</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>141.35569368867138</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B23" s="36">
         <v>2020</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>142.34518354449207</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B24" s="36">
         <v>2021</v>
       </c>
@@ -10041,7 +10041,7 @@
         <v>146.47319386728233</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="14.5" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
         <v>36</v>
       </c>
